--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786045E8-CA00-407C-884A-AF04EB92BE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF63E0-725A-435E-B047-D283B184F9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>##var</t>
   </si>
@@ -65,6 +76,24 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 20% 武器射击速度
++ 5% 武器伤害
++ 50% 速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -180,6 +209,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +532,7 @@
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -509,7 +541,7 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
     <col min="7" max="8" width="12.5546875" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
@@ -523,7 +555,7 @@
     <col min="18" max="18" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="41.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +568,9 @@
       <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -569,7 +603,9 @@
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -629,7 +665,9 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -649,7 +687,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -657,10 +695,12 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF63E0-725A-435E-B047-D283B184F9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFBF82C-C83A-4A34-A1F6-5CF15FB24575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火焰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,6 +90,22 @@
     <t>+ 20% 武器射击速度
 + 5% 武器伤害
 + 50% 速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速射击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 15% 武器射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RapidFire</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +541,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -540,7 +552,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
     <col min="7" max="8" width="12.5546875" style="9" customWidth="1"/>
@@ -566,10 +578,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -663,10 +675,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -687,19 +699,19 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -722,10 +734,18 @@
     </row>
     <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFBF82C-C83A-4A34-A1F6-5CF15FB24575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CFF7AD-198A-4932-8799-10553E6F3C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mobs" sheetId="1" r:id="rId1"/>
+    <sheet name="Abilities" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CFF7AD-198A-4932-8799-10553E6F3C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC4C69E-C007-4C97-9162-5D5417841AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -87,12 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+ 20% 武器射击速度
-+ 5% 武器伤害
-+ 50% 速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>高速</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,6 +100,63 @@
   </si>
   <si>
     <t>RapidFire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你不开火时你的武器会进行校准
+校准可以减少武器的扩散，同时提高总体瞄准和速度
+当你的武器处于冷却状态时，校准会快速重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被你的武器击中的目标会被点燃，造成每秒伤害的 50%
+该效果不会与自身叠加。再次击中目标造成更大伤害将重置点燃持续时间并施加更强的点燃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧弹打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snipe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 20% 武器射击速度
++ 5% 武器伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>values#sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.2,0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的武器子弹射程越远，造成的总伤害就越高，最多 +120%
++20% 武器射弹速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2,0.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -539,12 +590,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -552,22 +603,23 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="12.5546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="9" customWidth="1"/>
+    <col min="12" max="13" width="22.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,9 +633,11 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -591,18 +645,19 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="8"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -616,9 +671,11 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -626,18 +683,19 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -653,7 +711,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -663,8 +721,9 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -678,9 +737,11 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -688,75 +749,81 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -764,24 +831,35 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -789,24 +867,35 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="78.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -814,24 +903,35 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="78.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -839,8 +939,9 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -851,12 +952,12 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -864,8 +965,9 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -876,12 +978,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -889,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -901,12 +1004,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -914,8 +1017,9 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -926,12 +1030,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -939,8 +1043,9 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -951,12 +1056,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -964,8 +1069,9 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -976,12 +1082,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -989,8 +1095,9 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1001,12 +1108,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -1014,8 +1121,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1026,12 +1134,12 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -1039,8 +1147,9 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1051,12 +1160,12 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -1064,8 +1173,9 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1076,12 +1186,12 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -1089,8 +1199,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1101,12 +1212,12 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -1114,8 +1225,9 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1126,12 +1238,12 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -1139,8 +1251,9 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1151,12 +1264,12 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -1164,8 +1277,9 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1176,12 +1290,12 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -1189,8 +1303,9 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1201,12 +1316,12 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -1214,8 +1329,9 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1226,12 +1342,12 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -1239,8 +1355,9 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1251,12 +1368,12 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -1264,8 +1381,9 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1276,12 +1394,12 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="4"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -1289,8 +1407,9 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1301,12 +1420,12 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="4"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -1314,8 +1433,9 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1326,12 +1446,12 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -1339,8 +1459,9 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1351,12 +1472,12 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -1364,8 +1485,9 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1376,12 +1498,12 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="4"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -1389,8 +1511,9 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1401,12 +1524,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -1414,8 +1537,9 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1426,12 +1550,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="3"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -1439,8 +1563,9 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1451,12 +1576,12 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="3"/>
+      <c r="K34" s="4"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -1464,8 +1589,9 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1476,12 +1602,12 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="4"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -1489,8 +1615,9 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1501,12 +1628,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="3"/>
+      <c r="K36" s="4"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -1514,8 +1641,9 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1526,12 +1654,12 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -1539,8 +1667,9 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1551,12 +1680,12 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="3"/>
+      <c r="K38" s="4"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="4"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -1564,8 +1693,9 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1576,7 +1706,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="4"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -1589,8 +1719,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1601,7 +1732,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="3"/>
+      <c r="K40" s="4"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -1614,8 +1745,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1626,7 +1758,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="4"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -1639,8 +1771,9 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1651,7 +1784,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="3"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -1664,8 +1797,9 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1676,7 +1810,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="3"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -1689,8 +1823,9 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1701,7 +1836,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="3"/>
+      <c r="K44" s="4"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -1714,8 +1849,9 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1726,7 +1862,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="3"/>
+      <c r="K45" s="4"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -1739,8 +1875,9 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1751,7 +1888,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="3"/>
+      <c r="K46" s="4"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -1764,8 +1901,9 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1776,7 +1914,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="3"/>
+      <c r="K47" s="4"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -1789,8 +1927,9 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1801,7 +1940,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="3"/>
+      <c r="K48" s="4"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -1814,8 +1953,9 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1826,7 +1966,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="3"/>
+      <c r="K49" s="4"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -1839,8 +1979,9 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1851,7 +1992,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="3"/>
+      <c r="K50" s="4"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -1864,8 +2005,9 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1876,7 +2018,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="3"/>
+      <c r="K51" s="4"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -1889,8 +2031,9 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1901,7 +2044,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="4"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -1914,8 +2057,9 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1926,7 +2070,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="3"/>
+      <c r="K53" s="4"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -1939,8 +2083,9 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1951,7 +2096,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="3"/>
+      <c r="K54" s="4"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -1964,8 +2109,9 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1976,7 +2122,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="3"/>
+      <c r="K55" s="4"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -1989,8 +2135,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2001,7 +2148,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="3"/>
+      <c r="K56" s="4"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -2014,8 +2161,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2026,7 +2174,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="3"/>
+      <c r="K57" s="4"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -2039,8 +2187,9 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2051,7 +2200,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="3"/>
+      <c r="K58" s="4"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -2064,8 +2213,9 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2076,7 +2226,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="3"/>
+      <c r="K59" s="4"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -2089,8 +2239,9 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2101,7 +2252,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="3"/>
+      <c r="K60" s="4"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -2114,8 +2265,9 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2126,7 +2278,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="3"/>
+      <c r="K61" s="4"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -2139,8 +2291,9 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2151,7 +2304,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="3"/>
+      <c r="K62" s="4"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -2164,8 +2317,9 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2176,7 +2330,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="3"/>
+      <c r="K63" s="4"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -2189,8 +2343,9 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2201,7 +2356,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="3"/>
+      <c r="K64" s="4"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -2214,8 +2369,9 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2226,7 +2382,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="3"/>
+      <c r="K65" s="4"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -2239,8 +2395,9 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2251,7 +2408,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="3"/>
+      <c r="K66" s="4"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -2264,8 +2421,9 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2276,7 +2434,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="4"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -2289,8 +2447,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2301,7 +2460,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="3"/>
+      <c r="K68" s="4"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -2314,8 +2473,9 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2326,7 +2486,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="3"/>
+      <c r="K69" s="4"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -2339,8 +2499,9 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2351,7 +2512,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="3"/>
+      <c r="K70" s="4"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -2364,8 +2525,9 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2376,7 +2538,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="3"/>
+      <c r="K71" s="4"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -2389,8 +2551,9 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2401,7 +2564,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="3"/>
+      <c r="K72" s="4"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -2414,8 +2577,9 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2426,7 +2590,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="3"/>
+      <c r="K73" s="4"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -2439,8 +2603,9 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2451,7 +2616,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="3"/>
+      <c r="K74" s="4"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
@@ -2464,8 +2629,9 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2476,7 +2642,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="3"/>
+      <c r="K75" s="4"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -2489,8 +2655,9 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2501,7 +2668,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="3"/>
+      <c r="K76" s="4"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -2514,8 +2681,9 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2526,7 +2694,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="3"/>
+      <c r="K77" s="4"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -2539,8 +2707,9 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2551,7 +2720,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="3"/>
+      <c r="K78" s="4"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -2564,8 +2733,9 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2576,7 +2746,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="3"/>
+      <c r="K79" s="4"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -2589,8 +2759,9 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2601,7 +2772,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="3"/>
+      <c r="K80" s="4"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -2614,8 +2785,9 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2626,7 +2798,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="3"/>
+      <c r="K81" s="4"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -2639,8 +2811,9 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2651,7 +2824,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="3"/>
+      <c r="K82" s="4"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -2664,8 +2837,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2676,7 +2850,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="3"/>
+      <c r="K83" s="4"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -2689,8 +2863,9 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2701,7 +2876,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="3"/>
+      <c r="K84" s="4"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -2714,8 +2889,9 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2726,7 +2902,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="3"/>
+      <c r="K85" s="4"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -2739,8 +2915,9 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2751,7 +2928,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="4"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -2764,8 +2941,9 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2776,7 +2954,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="3"/>
+      <c r="K87" s="4"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -2789,8 +2967,9 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2801,7 +2980,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="3"/>
+      <c r="K88" s="4"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -2814,8 +2993,9 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2826,7 +3006,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="3"/>
+      <c r="K89" s="4"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -2839,8 +3019,9 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2851,7 +3032,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="3"/>
+      <c r="K90" s="4"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -2864,8 +3045,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2876,7 +3058,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="3"/>
+      <c r="K91" s="4"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -2889,8 +3071,9 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2901,7 +3084,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="3"/>
+      <c r="K92" s="4"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -2914,8 +3097,9 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2926,7 +3110,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="3"/>
+      <c r="K93" s="4"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -2939,8 +3123,9 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2951,7 +3136,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="3"/>
+      <c r="K94" s="4"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -2964,8 +3149,9 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2976,7 +3162,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="3"/>
+      <c r="K95" s="4"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -2989,8 +3175,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3001,7 +3188,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="3"/>
+      <c r="K96" s="4"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -3014,8 +3201,9 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3026,7 +3214,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="3"/>
+      <c r="K97" s="4"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -3039,8 +3227,9 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3051,7 +3240,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="3"/>
+      <c r="K98" s="4"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -3064,8 +3253,9 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X98" s="3"/>
+    </row>
+    <row r="99" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3076,7 +3266,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="3"/>
+      <c r="K99" s="4"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -3089,8 +3279,9 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
-    </row>
-    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X99" s="3"/>
+    </row>
+    <row r="100" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3101,7 +3292,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="3"/>
+      <c r="K100" s="4"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -3114,6 +3305,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC4C69E-C007-4C97-9162-5D5417841AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD26E7-9A38-430C-9B31-1D1676035796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
+    <sheet name="Buffs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -117,11 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被你的武器击中的目标会被点燃，造成每秒伤害的 50%
-该效果不会与自身叠加。再次击中目标造成更大伤害将重置点燃持续时间并施加更强的点燃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>燃烧弹打击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,6 +153,54 @@
   </si>
   <si>
     <t>1.2,0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒造成120点燃烧伤害，持续三秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncendiaryStrike</t>
+  </si>
+  <si>
+    <t>被你的武器击中的目标会被点燃，造成每秒伤害的 50%
+无法叠加。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +636,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -606,7 +650,7 @@
     <col min="4" max="4" width="42.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="9" customWidth="1"/>
     <col min="6" max="6" width="14" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="9" customWidth="1"/>
     <col min="8" max="9" width="12.5546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="11.21875" style="9" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" style="9" customWidth="1"/>
@@ -633,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>13</v>
@@ -671,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>4</v>
@@ -723,7 +767,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" ht="24.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -737,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -762,7 +806,9 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -770,10 +816,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -798,7 +844,9 @@
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
@@ -834,7 +882,9 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
@@ -842,13 +892,13 @@
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -870,7 +920,9 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" ht="78.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
@@ -880,11 +932,11 @@
       <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11">
-        <v>0.1</v>
+      <c r="E8" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -905,22 +957,22 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="78.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" ht="59.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E9" s="11">
         <v>0.1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -3312,4 +3364,2907 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1958F79-0454-41DC-B01F-B914C232051C}">
+  <dimension ref="A1:Z100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="9" customWidth="1"/>
+    <col min="14" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11">
+        <v>120</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="20.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="23.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD26E7-9A38-430C-9B31-1D1676035796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8FC8E-593B-405C-8AA2-BB518D8C6B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{CDA75B9E-64D1-4C29-87B8-939E49C595CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最后一个数字是每多少秒减少一层</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -160,10 +196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>not</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>燃烧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,6 +233,173 @@
   <si>
     <t>被你的武器击中的目标会被点燃，造成每秒伤害的 50%
 无法叠加。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连射杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BurstFire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一级升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clash_abilities#sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_abilities#sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,1004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiegeWeaponry</t>
+  </si>
+  <si>
+    <t>攻城武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次连续射击或为武器充电时，您的武器总射速都会增加
+射击时-80% 总推力
+当你连续开火时，你的武器会对你的船体造成逐渐增加的自我伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006,1007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volley</t>
+  </si>
+  <si>
+    <t>齐鸣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 武器射弹
+-20% 武器射弹爆炸半径和总射弹伤害
+-10% 武器射弹尺寸和总射弹速度
++20% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FocusFire</t>
+  </si>
+  <si>
+    <t>火力聚焦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40% 总武器分布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FiringArray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击阵列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你的中央投射物上增加20%的总武器投射物伤害和爆炸半径。其他武器投射物也会相应地调整总投射物伤害和爆炸半径，逐渐减少到最外层投射物为止，最终调整为0%。
+对于你的中央射弹，增加30%的总射弹大小。你其他的武器射弹也会进行调整，总射弹大小逐渐减小，最外层的射弹减小到-30%。
++10% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fusillade</t>
+  </si>
+  <si>
+    <t>大号射击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础武器射弹数量翻倍。
+增加1个武器射弹。
+减少15%的武器射弹爆炸半径和总射弹伤害。
+减少10%的武器射弹大小和总射弹速度。
+增加15%的武器散布。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010,1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,-0.2,-0.1,0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0,0.3,-0.3,0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.15,0.1,0.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibrate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.075,0.3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当击败敌人时都会获得战争代币
+每层代币令武器射速 -0.75%、推力 +0.75%，最高为 30%
+随着时间的推移，代币会迅速减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的武器快速射击，但产生的冷却时间等于射击的累积冷却时间
++2 连射
++20% 武器射速</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +437,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +470,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -295,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -320,6 +546,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -335,6 +587,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,25 +889,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="9" customWidth="1"/>
-    <col min="8" max="9" width="12.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="11.21875" style="9" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" style="9" customWidth="1"/>
     <col min="12" max="13" width="22.88671875" customWidth="1"/>
@@ -663,7 +920,7 @@
     <col min="19" max="19" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,8 +939,12 @@
       <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -720,8 +981,12 @@
       <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -749,7 +1014,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -767,7 +1032,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="24.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -786,8 +1051,12 @@
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -806,9 +1075,7 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
@@ -825,7 +1092,9 @@
         <v>12</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -844,9 +1113,7 @@
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
@@ -863,7 +1130,9 @@
         <v>17</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -881,10 +1150,8 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
+    <row r="7" spans="1:24" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
@@ -900,8 +1167,12 @@
       <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4">
+        <v>1004</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -919,9 +1190,9 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="78.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -936,10 +1207,14 @@
         <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1003</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -957,51 +1232,65 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="59.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3">
+    <row r="9" spans="1:24" s="19" customFormat="1" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A9" s="20"/>
+      <c r="B9" s="16">
         <v>1005</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+    </row>
+    <row r="10" spans="1:24" ht="72.599999999999994" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1007</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1019,15 +1308,29 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1006</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1045,41 +1348,69 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+    <row r="12" spans="1:24" s="19" customFormat="1" ht="72.599999999999994" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:24" ht="72.599999999999994" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1010</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1098,14 +1429,30 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1009</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1123,15 +1470,31 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+    <row r="15" spans="1:24" ht="127.1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1010</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1149,31 +1512,43 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+    <row r="16" spans="1:24" s="19" customFormat="1" ht="90.8" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1183,7 +1558,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1209,7 +1584,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1235,7 +1610,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1261,7 +1636,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1287,7 +1662,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1313,7 +1688,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1339,7 +1714,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1365,7 +1740,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1391,7 +1766,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1417,7 +1792,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1443,7 +1818,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1469,7 +1844,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1495,7 +1870,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1521,7 +1896,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1547,7 +1922,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1573,7 +1948,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -1599,7 +1974,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -1625,7 +2000,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -1651,7 +2026,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -1677,7 +2052,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -1703,7 +2078,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -1729,7 +2104,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -1755,7 +2130,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -1781,7 +2156,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -1807,7 +2182,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -1833,7 +2208,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -1859,7 +2234,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -1885,7 +2260,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -1911,7 +2286,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -1937,7 +2312,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="H46" s="14"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -1963,7 +2338,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -1989,7 +2364,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -2015,7 +2390,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -2041,7 +2416,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="14"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -2067,7 +2442,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -2093,7 +2468,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="14"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -2119,7 +2494,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -2145,7 +2520,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="14"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -2171,7 +2546,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="14"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -2197,7 +2572,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="14"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -2223,7 +2598,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="14"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -2249,7 +2624,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="H58" s="14"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -2275,7 +2650,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -2301,7 +2676,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="14"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -2327,7 +2702,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="H61" s="14"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -2353,7 +2728,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="H62" s="14"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -2379,7 +2754,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="H63" s="14"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -2405,7 +2780,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="H64" s="14"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -2431,7 +2806,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="14"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -2457,7 +2832,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="H66" s="14"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -2483,7 +2858,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="14"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -2509,7 +2884,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="H68" s="14"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -2535,7 +2910,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="14"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -2561,7 +2936,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="14"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -2587,7 +2962,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="14"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -2613,7 +2988,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="H72" s="14"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -2639,7 +3014,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="14"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -2665,7 +3040,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
+      <c r="H74" s="14"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -2691,7 +3066,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="H75" s="14"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -2717,7 +3092,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="H76" s="14"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -2743,7 +3118,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
+      <c r="H77" s="14"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -2769,7 +3144,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+      <c r="H78" s="14"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -2795,7 +3170,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="H79" s="14"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -2821,7 +3196,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="H80" s="14"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -2847,7 +3222,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="H81" s="14"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -2873,7 +3248,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="H82" s="14"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -2899,7 +3274,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="H83" s="14"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -2925,7 +3300,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="H84" s="14"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -2951,7 +3326,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="H85" s="14"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -2977,7 +3352,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
+      <c r="H86" s="14"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -3003,7 +3378,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="H87" s="14"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -3029,7 +3404,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+      <c r="H88" s="14"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -3055,7 +3430,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+      <c r="H89" s="14"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -3081,7 +3456,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="H90" s="14"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -3107,7 +3482,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="H91" s="14"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -3133,7 +3508,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="H92" s="14"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -3159,7 +3534,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="H93" s="14"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -3185,7 +3560,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="H94" s="14"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -3211,7 +3586,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="H95" s="14"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -3237,7 +3612,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+      <c r="H96" s="14"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -3263,7 +3638,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="H97" s="14"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -3289,7 +3664,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="H98" s="14"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -3315,7 +3690,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
+      <c r="H99" s="14"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -3341,7 +3716,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+      <c r="H100" s="14"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -3363,6 +3738,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3370,7 +3746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1958F79-0454-41DC-B01F-B914C232051C}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3414,10 +3790,10 @@
         <v>26</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>13</v>
@@ -3458,10 +3834,10 @@
         <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>4</v>
@@ -3532,10 +3908,10 @@
         <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>11</v>
@@ -3567,10 +3943,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="11">
         <v>120</v>
@@ -3582,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8FC8E-593B-405C-8AA2-BB518D8C6B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357C2359-DD1B-4FBA-8AAC-A7D681D79919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,9 +340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Fusillade</t>
-  </si>
-  <si>
     <t>大号射击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,6 +397,10 @@
     <t>你的武器快速射击，但产生的冷却时间等于射击的累积冷却时间
 +2 连射
 +20% 武器射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fusillade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -893,9 +890,9 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="8" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -1207,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="4">
         <v>1003</v>
@@ -1277,10 +1274,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -1317,10 +1314,10 @@
         <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>50</v>
@@ -1350,7 +1347,7 @@
     </row>
     <row r="12" spans="1:24" s="19" customFormat="1" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="16">
         <v>1008</v>
@@ -1388,7 +1385,7 @@
     </row>
     <row r="13" spans="1:24" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3">
         <v>1009</v>
@@ -1400,7 +1397,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>57</v>
@@ -1409,7 +1406,7 @@
         <v>1010</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3">
         <v>1010</v>
@@ -1451,7 +1448,7 @@
         <v>1009</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1472,7 +1469,7 @@
     </row>
     <row r="15" spans="1:24" ht="127.1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
@@ -1484,7 +1481,7 @@
         <v>65</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>63</v>
@@ -1493,7 +1490,7 @@
         <v>1010</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1514,22 +1511,22 @@
     </row>
     <row r="16" spans="1:24" s="19" customFormat="1" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="16">
         <v>1012</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="E16" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357C2359-DD1B-4FBA-8AAC-A7D681D79919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD82F18-F2E1-43E9-83AA-BB867FEE14A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,12 +63,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{552298C9-CA37-4CC8-852C-B582120E0674}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第三个数字是自我伤害</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -280,16 +306,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SiegeWeaponry</t>
-  </si>
-  <si>
     <t>攻城武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次连续射击或为武器充电时，您的武器总射速都会增加
-射击时-80% 总推力
-当你连续开火时，你的武器会对你的船体造成逐渐增加的自我伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -401,6 +418,24 @@
   </si>
   <si>
     <t>Fusillade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiegeWeaponry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.01,0.8,0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次连续射击时，你的武器都会增加1%的总射速，最多100%。
+射击时 -80% 击退。
+当你连续开火时，你的武器会对你的船体造成自我伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -890,9 +925,9 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1163,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1189,7 +1224,7 @@
     </row>
     <row r="8" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -1204,7 +1239,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="4">
         <v>1003</v>
@@ -1274,10 +1309,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -1286,7 +1321,7 @@
         <v>1007</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1314,10 +1349,10 @@
         <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>50</v>
@@ -1326,7 +1361,7 @@
         <v>1006</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1347,22 +1382,22 @@
     </row>
     <row r="12" spans="1:24" s="19" customFormat="1" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B12" s="16">
         <v>1008</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.8</v>
+        <v>80</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
@@ -1385,28 +1420,28 @@
     </row>
     <row r="13" spans="1:24" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3">
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="4">
         <v>1010</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1427,28 +1462,28 @@
     </row>
     <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3">
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4">
         <v>-0.4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="4">
         <v>1009</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1469,28 +1504,28 @@
     </row>
     <row r="15" spans="1:24" ht="127.1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="4">
         <v>1010</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1511,22 +1546,22 @@
     </row>
     <row r="16" spans="1:24" s="19" customFormat="1" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="16">
         <v>1012</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD82F18-F2E1-43E9-83AA-BB867FEE14A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43644FEE-7F6B-4A62-9557-A94F8EBC7977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -436,6 +436,10 @@
   </si>
   <si>
     <t>fix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名（也是图标名）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -924,10 +928,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -937,7 +941,7 @@
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="9" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="9" customWidth="1"/>
@@ -1081,7 +1085,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>44</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43644FEE-7F6B-4A62-9557-A94F8EBC7977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54F904-CCF6-45D3-A629-79434AA3152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -316,9 +316,6 @@
   <si>
     <t>1008</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volley</t>
   </si>
   <si>
     <t>齐鸣</t>
@@ -361,7 +358,81 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基础武器射弹数量翻倍。
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010,1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,-0.2,-0.1,0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0,0.3,-0.3,0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibrate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.075,0.3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当击败敌人时都会获得战争代币
+每层代币令武器射速 -0.75%、推力 +0.75%，最高为 30%
+随着时间的推移，代币会迅速减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的武器快速射击，但产生的冷却时间等于射击的累积冷却时间
++2 连射
++20% 武器射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fusillade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiegeWeaponry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.01,0.8,0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次连续射击时，你的武器都会增加1%的总射速，最多100%。
+射击时 -80% 击退。
+当你连续开火时，你的武器会对你的船体造成自我伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名（也是图标名）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.15,0.1,0.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础武器射弹数量 +100%。
 增加1个武器射弹。
 减少15%的武器射弹爆炸半径和总射弹伤害。
 减少10%的武器射弹大小和总射弹速度。
@@ -369,77 +440,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010,1011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,-0.2,-0.1,0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2,0,0.3,-0.3,0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.15,0.1,0.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calibrate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>todo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.075,0.3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当击败敌人时都会获得战争代币
-每层代币令武器射速 -0.75%、推力 +0.75%，最高为 30%
-随着时间的推移，代币会迅速减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的武器快速射击，但产生的冷却时间等于射击的累积冷却时间
-+2 连射
-+20% 武器射速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fusillade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SiegeWeaponry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.01,0.8,0.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次连续射击时，你的武器都会增加1%的总射速，最多100%。
-射击时 -80% 击退。
-当你连续开火时，你的武器会对你的船体造成自我伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类名（也是图标名）</t>
+    <t>Volley</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -929,9 +930,9 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>44</v>
@@ -1228,7 +1229,7 @@
     </row>
     <row r="8" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -1243,7 +1244,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G8" s="4">
         <v>1003</v>
@@ -1313,10 +1314,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -1353,10 +1354,10 @@
         <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>50</v>
@@ -1386,7 +1387,7 @@
     </row>
     <row r="12" spans="1:24" s="19" customFormat="1" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="16">
         <v>1008</v>
@@ -1395,13 +1396,13 @@
         <v>52</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
@@ -1423,29 +1424,27 @@
       <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" ht="72.599999999999994" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G13" s="4">
         <v>1010</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1465,29 +1464,27 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="E14" s="4">
         <v>-0.4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4">
         <v>1009</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1508,28 +1505,28 @@
     </row>
     <row r="15" spans="1:24" ht="127.1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="4">
         <v>1010</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1549,23 +1546,21 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="19" customFormat="1" ht="90.8" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="16">
         <v>1012</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54F904-CCF6-45D3-A629-79434AA3152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F64DD9F-691D-46F6-8A66-C3797BFC88C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
-    <sheet name="Buffs" sheetId="2" r:id="rId2"/>
+    <sheet name="AbilityTree" sheetId="3" r:id="rId2"/>
+    <sheet name="Buffs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -274,27 +275,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>互斥升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一级升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>clash_abilities#sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>next_abilities#sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1003,1004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -441,6 +422,46 @@
   </si>
   <si>
     <t>Volley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力树 Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_ability_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_ability_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_ability_ids#sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -603,14 +624,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -927,12 +948,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -943,21 +964,20 @@
     <col min="4" max="4" width="55.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="9" customWidth="1"/>
-    <col min="12" max="13" width="22.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
+    <col min="11" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,29 +997,26 @@
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1019,29 +1036,26 @@
         <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>43</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1051,13 +1065,13 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1067,9 +1081,8 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1086,32 +1099,29 @@
         <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" ht="36.299999999999997" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -1128,28 +1138,27 @@
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="G5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -1166,18 +1175,18 @@
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="G6" s="4">
+        <v>1002</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1185,9 +1194,8 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="36.299999999999997" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
@@ -1205,19 +1213,17 @@
         <v>22</v>
       </c>
       <c r="G7" s="4">
-        <v>1004</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>49</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1225,11 +1231,10 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -1244,22 +1249,20 @@
         <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4">
-        <v>1003</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>49</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1267,10 +1270,9 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" s="19" customFormat="1" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A9" s="20"/>
+    </row>
+    <row r="9" spans="1:23" s="18" customFormat="1" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A9" s="19"/>
       <c r="B9" s="16">
         <v>1005</v>
       </c>
@@ -1280,22 +1282,24 @@
       <c r="D9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>0.1</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="17">
+        <v>1001</v>
+      </c>
+      <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
@@ -1303,9 +1307,8 @@
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-    </row>
-    <row r="10" spans="1:24" ht="72.599999999999994" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1006</v>
@@ -1314,28 +1317,26 @@
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="4">
-        <v>1007</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>54</v>
-      </c>
+        <v>1002</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1343,39 +1344,36 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11" s="4">
-        <v>1006</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>54</v>
-      </c>
+        <v>1002</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1383,37 +1381,38 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" s="19" customFormat="1" ht="72.599999999999994" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:23" s="18" customFormat="1" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" s="16">
         <v>1008</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1002</v>
+      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -1421,39 +1420,36 @@
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-    </row>
-    <row r="13" spans="1:24" ht="72.599999999999994" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G13" s="4">
-        <v>1010</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>65</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -1461,39 +1457,36 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4">
         <v>-0.4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G14" s="4">
-        <v>1009</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>64</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -1501,41 +1494,38 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="127.1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:23" ht="127.1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4">
-        <v>1010</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>64</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1543,35 +1533,36 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" s="19" customFormat="1" ht="90.8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:23" s="18" customFormat="1" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="16">
         <v>1012</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1003</v>
+      </c>
+      <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
@@ -1579,9 +1570,8 @@
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-    </row>
-    <row r="17" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1589,15 +1579,15 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -1605,9 +1595,8 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1615,15 +1604,15 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -1631,9 +1620,8 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1641,15 +1629,15 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -1657,9 +1645,8 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1667,15 +1654,15 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -1683,9 +1670,8 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1693,15 +1679,15 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -1709,9 +1695,8 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1719,15 +1704,15 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -1735,9 +1720,8 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1745,15 +1729,15 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -1761,9 +1745,8 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1771,15 +1754,15 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -1787,9 +1770,8 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1797,15 +1779,15 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -1813,9 +1795,8 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1823,15 +1804,15 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -1839,9 +1820,8 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1849,15 +1829,15 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -1865,9 +1845,8 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1875,15 +1854,15 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -1891,9 +1870,8 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1901,15 +1879,15 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -1917,9 +1895,8 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1927,15 +1904,15 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -1943,9 +1920,8 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1953,15 +1929,15 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -1969,9 +1945,8 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1979,15 +1954,15 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -1995,9 +1970,8 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2005,15 +1979,15 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -2021,9 +1995,8 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2031,15 +2004,15 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -2047,9 +2020,8 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2057,15 +2029,15 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -2073,9 +2045,8 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2083,15 +2054,15 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="14"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -2099,9 +2070,8 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2109,15 +2079,15 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="14"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -2125,9 +2095,8 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2135,15 +2104,15 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="14"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -2151,9 +2120,8 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2161,10 +2129,10 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="14"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -2177,9 +2145,8 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2187,10 +2154,10 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="14"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -2203,9 +2170,8 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2213,10 +2179,10 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="14"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -2229,9 +2195,8 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2239,10 +2204,10 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="14"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -2255,9 +2220,8 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2265,10 +2229,10 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="14"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -2281,9 +2245,8 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2291,10 +2254,10 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="14"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -2307,9 +2270,8 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2317,10 +2279,10 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="14"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -2333,9 +2295,8 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2343,10 +2304,10 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="14"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -2359,9 +2320,8 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2369,10 +2329,10 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="14"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -2385,9 +2345,8 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2395,10 +2354,10 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="14"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -2411,9 +2370,8 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2421,10 +2379,10 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="14"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -2437,9 +2395,8 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2447,10 +2404,10 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="14"/>
+      <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -2463,9 +2420,8 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2473,10 +2429,10 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -2489,9 +2445,8 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2499,10 +2454,10 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -2515,9 +2470,8 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2525,10 +2479,10 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="14"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -2541,9 +2495,8 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2551,10 +2504,10 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="14"/>
+      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -2567,9 +2520,8 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2577,10 +2529,10 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="14"/>
+      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -2593,9 +2545,8 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2603,10 +2554,10 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="14"/>
+      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -2619,9 +2570,8 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2629,10 +2579,10 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="14"/>
+      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -2645,9 +2595,8 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2655,10 +2604,10 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="14"/>
+      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -2671,9 +2620,8 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-    </row>
-    <row r="59" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2681,10 +2629,10 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -2697,9 +2645,8 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-    </row>
-    <row r="60" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2707,10 +2654,10 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="14"/>
+      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -2723,9 +2670,8 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-    </row>
-    <row r="61" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2733,10 +2679,10 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="14"/>
+      <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+      <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -2749,9 +2695,8 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2759,10 +2704,10 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="14"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -2775,9 +2720,8 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2785,10 +2729,10 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="14"/>
+      <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -2801,9 +2745,8 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2811,10 +2754,10 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="14"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -2827,9 +2770,8 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2837,10 +2779,10 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="14"/>
+      <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
+      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -2853,9 +2795,8 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-    </row>
-    <row r="66" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2863,10 +2804,10 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="14"/>
+      <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -2879,9 +2820,8 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2889,10 +2829,10 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="14"/>
+      <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -2905,9 +2845,8 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2915,10 +2854,10 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="14"/>
+      <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
+      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -2931,9 +2870,8 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2941,10 +2879,10 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="14"/>
+      <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
+      <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -2957,9 +2895,8 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2967,10 +2904,10 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="14"/>
+      <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -2983,9 +2920,8 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
-    </row>
-    <row r="71" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2993,10 +2929,10 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="14"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
+      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -3009,9 +2945,8 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-    </row>
-    <row r="72" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3019,10 +2954,10 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="14"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
+      <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -3035,9 +2970,8 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-    </row>
-    <row r="73" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3045,10 +2979,10 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="14"/>
+      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
+      <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -3061,9 +2995,8 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-    </row>
-    <row r="74" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3071,10 +3004,10 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="14"/>
+      <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
+      <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
@@ -3087,9 +3020,8 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-    </row>
-    <row r="75" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3097,10 +3029,10 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="14"/>
+      <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
+      <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -3113,9 +3045,8 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-    </row>
-    <row r="76" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3123,10 +3054,10 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
+      <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -3139,9 +3070,8 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-    </row>
-    <row r="77" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3149,10 +3079,10 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="14"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
+      <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -3165,9 +3095,8 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-    </row>
-    <row r="78" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3175,10 +3104,10 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="14"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
+      <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -3191,9 +3120,8 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-    </row>
-    <row r="79" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3201,10 +3129,10 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
+      <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -3217,9 +3145,8 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-    </row>
-    <row r="80" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3227,10 +3154,10 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -3243,9 +3170,8 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-    </row>
-    <row r="81" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3253,10 +3179,10 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="14"/>
+      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
+      <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -3269,9 +3195,8 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-    </row>
-    <row r="82" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3279,10 +3204,10 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -3295,9 +3220,8 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3305,10 +3229,10 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
+      <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -3321,9 +3245,8 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-    </row>
-    <row r="84" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3331,10 +3254,10 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
+      <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -3347,9 +3270,8 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
-    </row>
-    <row r="85" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3357,10 +3279,10 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
+      <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -3373,9 +3295,8 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-      <c r="X85" s="3"/>
-    </row>
-    <row r="86" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3383,10 +3304,10 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
+      <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -3399,9 +3320,8 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-      <c r="X86" s="3"/>
-    </row>
-    <row r="87" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3409,10 +3329,10 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="14"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
+      <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -3425,9 +3345,8 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-      <c r="X87" s="3"/>
-    </row>
-    <row r="88" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3435,10 +3354,10 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
+      <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -3451,9 +3370,8 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-    </row>
-    <row r="89" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3461,10 +3379,10 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
+      <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -3477,9 +3395,8 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
-      <c r="X89" s="3"/>
-    </row>
-    <row r="90" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3487,10 +3404,10 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
+      <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -3503,9 +3420,8 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3513,10 +3429,10 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
+      <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -3529,9 +3445,8 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
-      <c r="X91" s="3"/>
-    </row>
-    <row r="92" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3539,10 +3454,10 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="14"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
+      <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -3555,9 +3470,8 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
-      <c r="X92" s="3"/>
-    </row>
-    <row r="93" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3565,10 +3479,10 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="14"/>
+      <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
+      <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -3581,9 +3495,8 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
-      <c r="X93" s="3"/>
-    </row>
-    <row r="94" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3591,10 +3504,10 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="14"/>
+      <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
+      <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -3607,9 +3520,8 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
-    </row>
-    <row r="95" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3617,10 +3529,10 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="14"/>
+      <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
+      <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -3633,9 +3545,8 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3643,10 +3554,10 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="14"/>
+      <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
+      <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -3659,9 +3570,8 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-    </row>
-    <row r="97" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3669,10 +3579,10 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="14"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
+      <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -3685,9 +3595,8 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
-    </row>
-    <row r="98" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3695,10 +3604,10 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="14"/>
+      <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
+      <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -3711,9 +3620,8 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-    </row>
-    <row r="99" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3721,10 +3629,10 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="14"/>
+      <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
+      <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -3737,9 +3645,8 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-    </row>
-    <row r="100" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3747,10 +3654,10 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="14"/>
+      <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
+      <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -3763,7 +3670,6 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3774,11 +3680,2916 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E385BC-6E48-46F4-A35A-633189AFEC44}">
+  <dimension ref="A1:Z100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="9" customWidth="1"/>
+    <col min="14" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1005</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="20.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="23.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1958F79-0454-41DC-B01F-B914C232051C}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F64DD9F-691D-46F6-8A66-C3797BFC88C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F148B7-CCDE-4A81-B22D-13446FC589F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
   <si>
     <t>##var</t>
   </si>
@@ -462,6 +462,144 @@
   </si>
   <si>
     <t>1009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.15,0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20% 武器射弹大小
++15% 武器伤害
++5% 武器爆炸半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+30% 武器伤害
++12% 武器射弹大小
++5% 武器爆炸半径
+-12% 武器射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的武器射弹在被摧毁时会分裂成较弱的迷你射弹
+武器弹丸的大小和数量会影响每个弹丸的碎片数量
+-15%武器射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splinter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,0.12,0.05,0.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住开火键来充能武器
+充能可以提高武器的总伤害、弹道速度、弹道大小和爆炸半径。松开开火键释放攻击。
+对于具有多个基础弹道的武器，充能可以提高弹道数量。
+武器射速的修饰器会影响充能速度。
+对于天生具备充能能力的武器，充能射击会增加充能速度以及任何充能消耗。
+充能时推力减少30%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能射击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargedShot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014,1015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlastRadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10% 爆炸半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20% 爆炸半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighExplosive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高爆炸药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+35% 爆炸伤害
+-30% 爆炸半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcentratedBlast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓缩爆炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35,-0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人在被摧毁时会破裂，对附近的其他目标造成爆炸伤害
+破裂伤害等于被摧毁的敌人最大生命的 3%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rupture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破裂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1018,1019</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -951,20 +1089,20 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
@@ -1308,7 +1446,7 @@
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1006</v>
@@ -1382,7 +1520,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" s="18" customFormat="1" ht="72.599999999999994" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" s="18" customFormat="1" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
@@ -1495,7 +1633,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" ht="127.1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -1571,14 +1709,26 @@
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1004</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1596,14 +1746,26 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1004</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1621,14 +1783,26 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1004</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1646,14 +1820,28 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+    <row r="20" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1004</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1673,12 +1861,24 @@
     </row>
     <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="3">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1005</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1698,12 +1898,24 @@
     </row>
     <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="3">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1005</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1721,14 +1933,26 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="3">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1005</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1746,14 +1970,28 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1005</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3684,7 +3922,7 @@
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3976,11 +4214,21 @@
     </row>
     <row r="8" spans="1:26" ht="20.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1016</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -4004,11 +4252,21 @@
     </row>
     <row r="9" spans="1:26" ht="23.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1020</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F148B7-CCDE-4A81-B22D-13446FC589F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900A19B-568A-4B51-BB2A-202A13C101B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
   <si>
     <t>##var</t>
   </si>
@@ -600,6 +600,139 @@
   </si>
   <si>
     <t>1018,1019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Targeting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加或提升武器瞄准能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guidance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大大提高了武器瞄准能力
+-20% 武器射弹总速度
+-5% 武器射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归航打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射武器会从侧面发射一对较小的武器射弹。每发射 5 个武器射弹，就会额外发射一对
+寻的打击弹丸大大提高了瞄准能力并且不会很快退化
+自导打击弹丸的总伤害为 -70%，总爆炸半径和速度为 -60%
++10% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomingStrike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convergence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步改善武器瞄准
++2 武器射弹
+-15% 武器射弹速度、射速和总射弹尺寸
++75% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022,1023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20% 最大血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>船体增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HullStrength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absorption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3装甲
+装甲能够减少船体所受到的固定伤害值，提供对快速的轻型伤害的保护
+装甲无法减少燃烧伤害或自身伤害，并且不能将伤害减少到低于1点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juggernaut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主宰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25% 最大船体值
++40% 撞击伤害和击退效果对目标
++20% 撞击击退抗性
++20% 尺寸和无人机轨道半径
+-25% 推力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceArmor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力装甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10% 船体伤害抗性
++20% 撞击击退效果对目标
++20% 撞击击退抗性
+当你直接撞击船体时，你会对附近目标造成相当于撞击伤害25%的爆炸伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026,1027</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1088,10 +1221,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21:G24"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2010,13 +2143,25 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1006</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -2034,14 +2179,26 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+    <row r="26" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1006</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2059,14 +2216,26 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+    <row r="27" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1006</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -2084,14 +2253,26 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+    <row r="28" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1006</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -2110,13 +2291,25 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1007</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2134,14 +2327,26 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+    <row r="30" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1026</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1007</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2159,14 +2364,26 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+    <row r="31" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1027</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1007</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -2184,14 +2401,26 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
+    <row r="32" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1007</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3921,8 +4150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E385BC-6E48-46F4-A35A-633189AFEC44}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -4290,11 +4519,21 @@
     </row>
     <row r="10" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1024</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -4318,11 +4557,21 @@
     </row>
     <row r="11" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1028</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900A19B-568A-4B51-BB2A-202A13C101B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54EAB6A-5D0F-4E41-9C7F-0E580421057F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1222,9 +1222,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54EAB6A-5D0F-4E41-9C7F-0E580421057F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC2C9B9-427A-4991-BE85-F0CBBBEFECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
   <si>
     <t>##var</t>
   </si>
@@ -582,11 +582,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>敌人在被摧毁时会破裂，对附近的其他目标造成爆炸伤害
-破裂伤害等于被摧毁的敌人最大生命的 3%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rupture</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -705,14 +700,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+25% 最大船体值
-+40% 撞击伤害和击退效果对目标
-+20% 撞击击退抗性
-+20% 尺寸和无人机轨道半径
--25% 推力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ForceArmor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -733,6 +720,22 @@
   </si>
   <si>
     <t>1026,1027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人在被摧毁时会爆炸，对附近的其他目标造成爆炸伤害
+破裂伤害等于被摧毁的敌人最大生命的 3%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25% 最大生命
++40% 撞击伤害和击退效果对目标
++20% 撞击击退抗性
+-25% 推力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25,0.4,-0.2,-0.25</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1222,9 +1225,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2104,23 +2107,21 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>1020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E24" s="4">
         <v>0.03</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="4">
         <v>1005</v>
@@ -2150,14 +2151,14 @@
         <v>1021</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" s="4">
         <v>1006</v>
@@ -2187,14 +2188,14 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" s="4">
         <v>1006</v>
@@ -2224,14 +2225,14 @@
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" s="4">
         <v>1006</v>
@@ -2261,14 +2262,14 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="4">
         <v>1006</v>
@@ -2291,21 +2292,21 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="G29" s="4">
         <v>1007</v>
@@ -2335,14 +2336,14 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" s="4">
         <v>1007</v>
@@ -2364,22 +2365,22 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>65</v>
-      </c>
+    <row r="31" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="F31" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G31" s="4">
         <v>1007</v>
@@ -2409,14 +2410,14 @@
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G32" s="4">
         <v>1007</v>
@@ -4488,10 +4489,10 @@
         <v>106</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="F9" s="11">
         <v>1020</v>
@@ -4523,13 +4524,13 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="F10" s="4">
         <v>1024</v>
@@ -4561,13 +4562,13 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F11" s="4">
         <v>1028</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC2C9B9-427A-4991-BE85-F0CBBBEFECDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1974FA-FA2D-4B97-9425-4D3869A19E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="179">
   <si>
     <t>##var</t>
   </si>
@@ -606,21 +606,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>添加或提升武器瞄准能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Guidance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>指导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大大提高了武器瞄准能力
--20% 武器射弹总速度
--5% 武器射速</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -736,6 +726,153 @@
   </si>
   <si>
     <t>0.25,0.4,-0.2,-0.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+40% 再生
+随着时间的推移，提高船体被动恢复的速度
+船体以与最大船体成比例的速率再生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regeneration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加被动护盾再生能力
+护盾以与最大护盾成比例的速率再生
++10%再生速度
+在有护盾的情况下，护盾以75%的效果再生
+在有护盾的情况下，船体以50%的效果再生
+在无护盾的情况下，船体以100%的效果再生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegenerativeShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+40基础船体
++1覆盖层
+你没有护盾
+将升级池中除野外护盾升级外的所有护盾升级驱逐，并在你购买了护盾装备的情况下返回一个升级点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RapidReconstruction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速重构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdrenalModule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾上腺素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标受到的全局伤害与你的受损程度成正比，最高可增加50%伤害
+该加成平均了你的船体和护盾受损的比例。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030,1031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImprovedThrusters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25％ 推力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进推力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeadlyWake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的推进器会留下一条燃烧目标的痕迹，造成 120 点伤害/秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1033</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1034,1035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Streamline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精简</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25% 推力
+-10% 大小和无人机轨道半径
+-10% 最大船体
+-20% 碰撞伤害和对目标的击退效果
+-20% 碰撞击退抵抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得向前传送的能力，瞬间变得无形
+当你重新出现时，你会推开周围的目标并造成100点爆炸伤害
+闪现技能的冷却时间为1.5秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 100 或 提升 10% 武器瞄准能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器瞄准能力 +40%
+-20% 武器射弹总速度
+-5% 武器射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4,-0.2,-0.05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1225,9 +1362,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2252,7 @@
         <v>115</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="4">
         <v>0.03</v>
@@ -2144,9 +2281,7 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>1021</v>
       </c>
@@ -2154,9 +2289,11 @@
         <v>118</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="F25" s="4" t="s">
         <v>119</v>
       </c>
@@ -2181,21 +2318,21 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>177</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="F26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="4">
         <v>1006</v>
@@ -2225,14 +2362,14 @@
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G27" s="4">
         <v>1006</v>
@@ -2262,14 +2399,14 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G28" s="4">
         <v>1006</v>
@@ -2297,16 +2434,16 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E29" s="4">
         <v>0.2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G29" s="4">
         <v>1007</v>
@@ -2336,14 +2473,14 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G30" s="4">
         <v>1007</v>
@@ -2371,16 +2508,16 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G31" s="4">
         <v>1007</v>
@@ -2410,14 +2547,14 @@
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G32" s="4">
         <v>1007</v>
@@ -2439,14 +2576,24 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="3">
+        <v>1029</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1008</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2464,14 +2611,24 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="3">
+        <v>1030</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1008</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2489,14 +2646,24 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="3">
+        <v>1031</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1008</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2514,14 +2681,24 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="3">
+        <v>1032</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1008</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2541,12 +2718,22 @@
     </row>
     <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3">
+        <v>1033</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1009</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -2566,12 +2753,22 @@
     </row>
     <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3">
+        <v>1034</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1009</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -2589,14 +2786,24 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="3">
+        <v>1035</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1009</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -2614,14 +2821,24 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
+      <c r="B40" s="3">
+        <v>1036</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1009</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -4152,7 +4369,7 @@
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -4524,13 +4741,13 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="F10" s="4">
         <v>1024</v>
@@ -4562,13 +4779,13 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="4">
         <v>1028</v>
@@ -4596,11 +4813,21 @@
     </row>
     <row r="12" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1032</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -4624,11 +4851,21 @@
     </row>
     <row r="13" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1036</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1974FA-FA2D-4B97-9425-4D3869A19E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558AE3E7-1DA5-4BEF-A0FD-BF173D7FB141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
   <si>
     <t>##var</t>
   </si>
@@ -637,13 +637,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进一步改善武器瞄准
-+2 武器射弹
--15% 武器射弹速度、射速和总射弹尺寸
-+75% 武器扩散</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>追踪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -836,25 +829,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+25% 推力
--10% 大小和无人机轨道半径
--10% 最大船体
--20% 碰撞伤害和对目标的击退效果
--20% 碰撞击退抵抗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Blink</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>闪现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得向前传送的能力，瞬间变得无形
-当你重新出现时，你会推开周围的目标并造成100点爆炸伤害
-闪现技能的冷却时间为1.5秒。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -873,6 +852,43 @@
   </si>
   <si>
     <t>0.4,-0.2,-0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器瞄准 +5%
++2 武器射弹
+-15% 武器射弹速度、射速和总射弹尺寸
++75% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05,2,-0.15,0.75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25% 推力
+-10% 大小
+-10% 最大血量
+-20% 碰撞伤害和对目标的击退效果
+-20% 碰撞击退抵抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.2,0.2,0.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得向前传送的能力，瞬间变得无形
+当你重新出现时，你会推开护盾半径内的敌人并造成10点爆炸伤害
+闪现技能的冷却时间为1.5秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1362,9 +1378,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2252,7 +2268,7 @@
         <v>115</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="4">
         <v>0.03</v>
@@ -2289,10 +2305,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>119</v>
@@ -2326,10 +2342,10 @@
         <v>121</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>120</v>
@@ -2392,9 +2408,7 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>1024</v>
       </c>
@@ -2402,9 +2416,11 @@
         <v>125</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="F28" s="4" t="s">
         <v>126</v>
       </c>
@@ -2434,16 +2450,16 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="4">
         <v>0.2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="4">
         <v>1007</v>
@@ -2473,14 +2489,14 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="4">
         <v>1007</v>
@@ -2508,16 +2524,16 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="4">
         <v>1007</v>
@@ -2541,20 +2557,22 @@
     </row>
     <row r="32" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="B32" s="3">
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="F32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="4">
         <v>1007</v>
@@ -2577,19 +2595,23 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B33" s="3">
         <v>1029</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G33" s="4">
         <v>1008</v>
@@ -2612,19 +2634,21 @@
       <c r="W33" s="3"/>
     </row>
     <row r="34" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B34" s="3">
         <v>1030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G34" s="4">
         <v>1008</v>
@@ -2647,19 +2671,21 @@
       <c r="W34" s="3"/>
     </row>
     <row r="35" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B35" s="3">
         <v>1031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35" s="4">
         <v>1008</v>
@@ -2682,19 +2708,21 @@
       <c r="W35" s="3"/>
     </row>
     <row r="36" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B36" s="3">
         <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G36" s="4">
         <v>1008</v>
@@ -2717,19 +2745,21 @@
       <c r="W36" s="3"/>
     </row>
     <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B37" s="3">
         <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G37" s="4">
         <v>1009</v>
@@ -2752,19 +2782,21 @@
       <c r="W37" s="3"/>
     </row>
     <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B38" s="3">
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="4">
         <v>1009</v>
@@ -2787,19 +2819,21 @@
       <c r="W38" s="3"/>
     </row>
     <row r="39" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B39" s="3">
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="4">
         <v>1009</v>
@@ -2827,14 +2861,16 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="F40" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G40" s="4">
         <v>1009</v>
@@ -4741,13 +4777,13 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="F10" s="4">
         <v>1024</v>
@@ -4779,13 +4815,13 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="F11" s="4">
         <v>1028</v>
@@ -4817,13 +4853,13 @@
         <v>1008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="F12" s="4">
         <v>1032</v>
@@ -4855,13 +4891,13 @@
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="F13" s="4">
         <v>1036</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558AE3E7-1DA5-4BEF-A0FD-BF173D7FB141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B7962-56E7-43AA-908C-2605DC09D2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="184">
   <si>
     <t>##var</t>
   </si>
@@ -889,6 +889,10 @@
   </si>
   <si>
     <t>10,1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25,-0.1,-0.1,-0.2,-0.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1378,9 +1382,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2745,9 +2749,7 @@
       <c r="W36" s="3"/>
     </row>
     <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>1033</v>
       </c>
@@ -2757,7 +2759,9 @@
       <c r="D37" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4">
+        <v>0.25</v>
+      </c>
       <c r="F37" s="4" t="s">
         <v>160</v>
       </c>
@@ -2820,7 +2824,7 @@
     </row>
     <row r="39" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="B39" s="3">
         <v>1035</v>
@@ -2831,7 +2835,9 @@
       <c r="D39" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="F39" s="4" t="s">
         <v>168</v>
       </c>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038B7962-56E7-43AA-908C-2605DC09D2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69833E9A-5D9B-4B1B-A2A7-52F208B529E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="226">
   <si>
     <t>##var</t>
   </si>
@@ -893,6 +893,191 @@
   </si>
   <si>
     <t>0.25,-0.1,-0.1,-0.2,-0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经久耐用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1037</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldDurability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20% 最大护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReflexiveShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你受到盾牌击中时，你的盾牌会向攻击者的方向释放能量，造成爆炸伤害
++5% 最大护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果对你的护盾的攻击超过 25 点伤害，该伤害将减少至 25 点
+护盾冷却时间减慢 5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全能护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+55基础护盾
++15% 护盾伤害抵抗
++15% 护盾效果强度
+当你的护盾正在冷却时，它对因受到伤害而导致的冷却延迟有更强的抵抗力
+-85% 最大生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OmniShield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1038,1039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾冷却</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20％更快的盾牌冷却</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你的护盾破裂时，它会发生剧烈的放电，对附近的目标造成1000点爆炸伤害。
++5% 最大护盾值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VolatileShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定盾牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldCooldown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌冷却速度加快25%
+-40% 最大护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashShielding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你开火时，你的护盾会释放能量电弧，烧毁附近的目标。
+放电对于射击速度较慢的武器来说，伤害更高且射程更远。
+当你开火时，你的护盾会自我受伤。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffectRadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾效果半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25% 护盾效果半径
++10% 护盾效果强度
+增强护盾效果和攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉光护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadiantShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+50% 护盾效果半径
+护盾冷却时间延长10%
+最大护盾减少10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25% 护盾效果强度
++5% 最大护盾
+-20% 护盾效果半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FocusedShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为任何护盾增加武装护盾效果
+在武装护盾效果半径内的目标承受+20% 总伤害，根据护盾效果强度进行修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武装护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponizedShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1042,1043</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1046,1047</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1382,9 +1567,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2900,12 +3085,24 @@
     </row>
     <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="B41" s="3">
+        <v>1037</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1010</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2923,14 +3120,26 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
+    <row r="42" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1038</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1010</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2948,14 +3157,26 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
+    <row r="43" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1039</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1010</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2973,14 +3194,26 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
+    <row r="44" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1040</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1010</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2999,13 +3232,25 @@
       <c r="W44" s="3"/>
     </row>
     <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1041</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1011</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -3023,14 +3268,26 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
+    <row r="46" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1042</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1011</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -3048,14 +3305,26 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
+    <row r="47" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1043</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1011</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -3073,14 +3342,26 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
+    <row r="48" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1044</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1011</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3098,14 +3379,26 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
+    <row r="49" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1045</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1012</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -3123,14 +3416,26 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
+    <row r="50" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1046</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>216</v>
+      </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1012</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -3148,14 +3453,26 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
+    <row r="51" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1047</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1012</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -3173,14 +3490,26 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
+    <row r="52" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1048</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1012</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -4410,8 +4739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E385BC-6E48-46F4-A35A-633189AFEC44}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -4931,11 +5260,21 @@
     </row>
     <row r="14" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1040</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -4959,11 +5298,21 @@
     </row>
     <row r="15" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1044</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -4987,11 +5336,21 @@
     </row>
     <row r="16" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1048</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69833E9A-5D9B-4B1B-A2A7-52F208B529E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4499E179-39ED-4179-964A-22A808EA9994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="226">
   <si>
     <t>##var</t>
   </si>
@@ -1567,9 +1567,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3121,9 +3121,7 @@
       <c r="W41" s="3"/>
     </row>
     <row r="42" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="3">
         <v>1038</v>
       </c>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4499E179-39ED-4179-964A-22A808EA9994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CC8A3-4D5B-4279-AA0B-23126D565C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="228">
   <si>
     <t>##var</t>
   </si>
@@ -942,7 +942,142 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+55基础护盾
+    <t>OmniShield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1038,1039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾冷却</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你的护盾破裂时，它会发生剧烈的放电，对附近的目标造成1000点爆炸伤害。
++5% 最大护盾值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VolatileShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定盾牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldCooldown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌冷却速度加快25%
+-40% 最大护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlashShielding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你开火时，你的护盾会释放能量电弧，烧毁附近的目标。
+放电对于射击速度较慢的武器来说，伤害更高且射程更远。
+当你开火时，你的护盾会自我受伤。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffectRadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾效果半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25% 护盾效果半径
++10% 护盾效果强度
+增强护盾效果和攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉光护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadiantShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+50% 护盾效果半径
+护盾冷却时间延长10%
+最大护盾减少10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+25% 护盾效果强度
++5% 最大护盾
+-20% 护盾效果半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FocusedShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为任何护盾增加武装护盾效果
+在武装护盾效果半径内的目标承受+20% 总伤害，根据护盾效果强度进行修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武装护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponizedShields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1042,1043</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1046,1047</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,-0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,0.15,0.15,-0.85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+55 最大护盾
 +15% 护盾伤害抵抗
 +15% 护盾效果强度
 当你的护盾正在冷却时，它对因受到伤害而导致的冷却延迟有更强的抵抗力
@@ -950,134 +1085,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OmniShield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1038,1039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾冷却</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20％更快的盾牌冷却</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当你的护盾破裂时，它会发生剧烈的放电，对附近的目标造成1000点爆炸伤害。
-+5% 最大护盾值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VolatileShields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不稳定盾牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShieldCooldown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪光护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌冷却速度加快25%
--40% 最大护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlashShielding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discharge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当你开火时，你的护盾会释放能量电弧，烧毁附近的目标。
-放电对于射击速度较慢的武器来说，伤害更高且射程更远。
-当你开火时，你的护盾会自我受伤。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShieldEffectRadius</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾效果半径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+25% 护盾效果半径
-+10% 护盾效果强度
-增强护盾效果和攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉光护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadiantShields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+50% 护盾效果半径
-护盾冷却时间延长10%
-最大护盾减少10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+25% 护盾效果强度
-+5% 最大护盾
--20% 护盾效果半径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FocusedShields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为任何护盾增加武装护盾效果
-在武装护盾效果半径内的目标承受+20% 总伤害，根据护盾效果强度进行修正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武装护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponizedShields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1042,1043</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1045</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1046,1047</t>
+    <t>盾牌冷却 -20%。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1567,9 +1575,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3156,9 +3164,7 @@
       <c r="W42" s="3"/>
     </row>
     <row r="43" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>1039</v>
       </c>
@@ -3168,7 +3174,9 @@
       <c r="D43" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="F43" s="4" t="s">
         <v>191</v>
       </c>
@@ -3203,11 +3211,13 @@
         <v>194</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="G44" s="4">
         <v>1010</v>
@@ -3230,21 +3240,21 @@
       <c r="W44" s="3"/>
     </row>
     <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A45" s="3"/>
       <c r="B45" s="3">
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.2</v>
+      </c>
       <c r="F45" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G45" s="4">
         <v>1011</v>
@@ -3274,14 +3284,14 @@
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G46" s="4">
         <v>1011</v>
@@ -3311,14 +3321,14 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G47" s="4">
         <v>1011</v>
@@ -3348,14 +3358,14 @@
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G48" s="4">
         <v>1011</v>
@@ -3385,14 +3395,14 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G49" s="4">
         <v>1012</v>
@@ -3422,14 +3432,14 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G50" s="4">
         <v>1012</v>
@@ -3459,14 +3469,14 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G51" s="4">
         <v>1012</v>
@@ -3496,14 +3506,14 @@
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G52" s="4">
         <v>1012</v>
@@ -5268,7 +5278,7 @@
         <v>185</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F14" s="4">
         <v>1040</v>
@@ -5300,13 +5310,13 @@
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F15" s="4">
         <v>1044</v>
@@ -5338,13 +5348,13 @@
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F16" s="4">
         <v>1048</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CC8A3-4D5B-4279-AA0B-23126D565C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAB99BD-17CA-4474-9942-4AD396CAD2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="230">
   <si>
     <t>##var</t>
   </si>
@@ -979,11 +979,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>盾牌冷却速度加快25%
--40% 最大护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FlashShielding</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1021,12 +1016,6 @@
   </si>
   <si>
     <t>RadiantShields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+50% 护盾效果半径
-护盾冷却时间延长10%
-最大护盾减少10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1086,6 +1075,25 @@
   </si>
   <si>
     <t>盾牌冷却 -20%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌冷却 -25%
+-40% 最大护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.25,-0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.1,-0,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+50% 护盾效果半径
+护盾冷却时间 +10%
+最大护盾 -10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1575,9 +1583,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3175,7 +3183,7 @@
         <v>193</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>191</v>
@@ -3211,10 +3219,10 @@
         <v>194</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>195</v>
@@ -3248,7 +3256,7 @@
         <v>197</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E45" s="4">
         <v>0.2</v>
@@ -3314,9 +3322,7 @@
       <c r="W46" s="3"/>
     </row>
     <row r="47" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>1043</v>
       </c>
@@ -3324,11 +3330,13 @@
         <v>203</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="G47" s="4">
         <v>1011</v>
@@ -3358,14 +3366,14 @@
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G48" s="4">
         <v>1011</v>
@@ -3395,14 +3403,14 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G49" s="4">
         <v>1012</v>
@@ -3425,21 +3433,21 @@
       <c r="W49" s="3"/>
     </row>
     <row r="50" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A50" s="3"/>
       <c r="B50" s="3">
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="G50" s="4">
         <v>1012</v>
@@ -3469,14 +3477,14 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G51" s="4">
         <v>1012</v>
@@ -3506,14 +3514,14 @@
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G52" s="4">
         <v>1012</v>
@@ -5316,7 +5324,7 @@
         <v>198</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F15" s="4">
         <v>1044</v>
@@ -5348,13 +5356,13 @@
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F16" s="4">
         <v>1048</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAB99BD-17CA-4474-9942-4AD396CAD2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5999E9-4CF0-4C65-9152-9A923A829238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="231">
   <si>
     <t>##var</t>
   </si>
@@ -1094,6 +1094,10 @@
     <t>+50% 护盾效果半径
 护盾冷却时间 +10%
 最大护盾 -10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo|图标到这</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1583,9 +1587,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2914,7 +2918,7 @@
     </row>
     <row r="36" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="B36" s="3">
         <v>1032</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5999E9-4CF0-4C65-9152-9A923A829238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAD7AEC-FE10-40E3-9C2F-084BC4C1D018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="232">
   <si>
     <t>##var</t>
   </si>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+ 15% 武器射速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RapidFire</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -172,12 +168,6 @@
   </si>
   <si>
     <t>校准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当你不开火时你的武器会进行校准
-校准可以减少武器的扩散，同时提高总体瞄准和速度
-当你的武器处于冷却状态时，校准会快速重置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -210,11 +200,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你的武器子弹射程越远，造成的总伤害就越高，最多 +120%
-+20% 武器射弹速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2,0.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -258,11 +243,6 @@
     <t>IncendiaryStrike</t>
   </si>
   <si>
-    <t>被你的武器击中的目标会被点燃，造成每秒伤害的 50%
-无法叠加。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>三连射杀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -303,13 +283,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+2 武器射弹
--20% 武器射弹爆炸半径和总射弹伤害
--10% 武器射弹尺寸和总射弹速度
-+20% 武器扩散</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FocusFire</t>
   </si>
   <si>
@@ -329,12 +302,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在你的中央投射物上增加20%的总武器投射物伤害和爆炸半径。其他武器投射物也会相应地调整总投射物伤害和爆炸半径，逐渐减少到最外层投射物为止，最终调整为0%。
-对于你的中央射弹，增加30%的总射弹大小。你其他的武器射弹也会进行调整，总射弹大小逐渐减小，最外层的射弹减小到-30%。
-+10% 武器扩散</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大号射击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,18 +338,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每当击败敌人时都会获得战争代币
-每层代币令武器射速 -0.75%、推力 +0.75%，最高为 30%
-随着时间的推移，代币会迅速减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的武器快速射击，但产生的冷却时间等于射击的累积冷却时间
-+2 连射
-+20% 武器射速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Fusillade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -395,12 +350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每次连续射击时，你的武器都会增加1%的总射速，最多100%。
-射击时 -80% 击退。
-当你连续开火时，你的武器会对你的船体造成自我伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fix</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -413,14 +362,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基础武器射弹数量 +100%。
-增加1个武器射弹。
-减少15%的武器射弹爆炸半径和总射弹伤害。
-减少10%的武器射弹大小和总射弹速度。
-增加15%的武器散布。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Volley</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -477,12 +418,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+20% 武器射弹大小
-+15% 武器伤害
-+5% 武器爆炸半径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Payload</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -491,19 +426,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+30% 武器伤害
-+12% 武器射弹大小
-+5% 武器爆炸半径
--12% 武器射速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的武器射弹在被摧毁时会分裂成较弱的迷你射弹
-武器弹丸的大小和数量会影响每个弹丸的碎片数量
--15%武器射速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Splinter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -513,15 +435,6 @@
   </si>
   <si>
     <t>0.3,0.12,0.05,0.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按住开火键来充能武器
-充能可以提高武器的总伤害、弹道速度、弹道大小和爆炸半径。松开开火键释放攻击。
-对于具有多个基础弹道的武器，充能可以提高弹道数量。
-武器射速的修饰器会影响充能速度。
-对于天生具备充能能力的武器，充能射击会增加充能速度以及任何充能消耗。
-充能时推力减少30%。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -618,13 +531,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发射武器会从侧面发射一对较小的武器射弹。每发射 5 个武器射弹，就会额外发射一对
-寻的打击弹丸大大提高了瞄准能力并且不会很快退化
-自导打击弹丸的总伤害为 -70%，总爆炸半径和速度为 -60%
-+10% 武器扩散</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HomingStrike</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -665,12 +571,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+3装甲
-装甲能够减少船体所受到的固定伤害值，提供对快速的轻型伤害的保护
-装甲无法减少燃烧伤害或自身伤害，并且不能将伤害减少到低于1点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>吸收</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -688,13 +588,6 @@
   </si>
   <si>
     <t>强力装甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+10% 船体伤害抗性
-+20% 撞击击退效果对目标
-+20% 撞击击退抗性
-当你直接撞击船体时，你会对附近目标造成相当于撞击伤害25%的爆炸伤害。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -726,25 +619,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+40% 再生
-随着时间的推移，提高船体被动恢复的速度
-船体以与最大船体成比例的速率再生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Regeneration</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>增加被动护盾再生能力
-护盾以与最大护盾成比例的速率再生
-+10%再生速度
-在有护盾的情况下，护盾以75%的效果再生
-在有护盾的情况下，船体以50%的效果再生
-在无护盾的情况下，船体以100%的效果再生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RegenerativeShields</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -753,13 +631,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+40基础船体
-+1覆盖层
-你没有护盾
-将升级池中除野外护盾升级外的所有护盾升级驱逐，并在你购买了护盾装备的情况下返回一个升级点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RapidReconstruction</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -776,11 +647,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目标受到的全局伤害与你的受损程度成正比，最高可增加50%伤害
-该加成平均了你的船体和护盾受损的比例。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1029</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -805,10 +671,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你的推进器会留下一条燃烧目标的痕迹，造成 120 点伤害/秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>致命路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -845,20 +707,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>武器瞄准能力 +40%
--20% 武器射弹总速度
--5% 武器射速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.4,-0.2,-0.05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器瞄准 +5%
-+2 武器射弹
--15% 武器射弹速度、射速和总射弹尺寸
-+75% 武器扩散</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -958,11 +807,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当你的护盾破裂时，它会发生剧烈的放电，对附近的目标造成1000点爆炸伤害。
-+5% 最大护盾值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VolatileShields</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1030,11 +874,6 @@
   </si>
   <si>
     <t>FocusedShields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为任何护盾增加武装护盾效果
-在武装护盾效果半径内的目标承受+20% 总伤害，根据护盾效果强度进行修正</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1098,6 +937,153 @@
   </si>
   <si>
     <t>todo|图标到这</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不开火时，你的武器会进行校准
+校准可以减少武器的扩散，同时提高总体瞄准和速度
+当你的武器处于冷却状态时，校准会快速重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被武器击中的目标会被点燃，造成每秒伤害的 50%
+无法叠加。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2 子弹数量
+-20% 子弹爆炸半径和子弹伤害
+-10% 子弹尺寸和子弹速度
++20% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的子弹射程越远，造成的总伤害就越高，最多 +120%
++20% 射击速度</t>
+  </si>
+  <si>
+    <t>在你的中央投射物上增加20%的总武器投射物伤害和爆炸半径。其他武器投射物也会相应地调整总投射物伤害和爆炸半径，逐渐减少到最外层投射物为止，最终调整为0%。
+对于你的中央子弹，增加30%的子弹大小。你其他的子弹也会进行调整，子弹大小逐渐减小，最外层的子弹减小到-30%。
++10% 武器扩散</t>
+  </si>
+  <si>
+    <t>基础子弹数量 +100%。
+增加 1 个子弹。
+减少 15% 的子弹爆炸半径和子弹伤害。
+减少 10% 的子弹大小和子弹速度。
+增加 15% 的散布。</t>
+  </si>
+  <si>
+    <t>武器瞄准 +5%
++2 子弹
+-15% 子弹速度、射速和子弹尺寸
++75% 武器扩散</t>
+  </si>
+  <si>
+    <t>+ 15% 射速</t>
+  </si>
+  <si>
+    <t>武器快速射击，但产生的冷却时间等于射击的累积冷却时间
++2 连射
++20% 射速</t>
+  </si>
+  <si>
+    <t>每当击败敌人时都会获得战争代币
+每层代币令射速 -0.75%、推力 +0.75%，最高为 30%
+随着时间的推移，代币会迅速减少</t>
+  </si>
+  <si>
+    <t>按住开火键来充能武器
+充能可以提高武器的总伤害、弹道速度、弹道大小和爆炸半径。松开开火键释放攻击。
+对于具有多个基础弹道的武器，充能可以提高弹道数量。
+射速的修饰器会影响充能速度。
+对于天生具备充能能力的武器，充能射击会增加充能速度以及任何充能消耗。
+充能时推力减少30%。</t>
+  </si>
+  <si>
+    <t>武器瞄准能力 +40%
+-20% 子弹总速度
+-5% 射速</t>
+  </si>
+  <si>
+    <t>+20% 子弹大小
++15% 武器伤害
++5% 爆炸半径</t>
+  </si>
+  <si>
+    <t>+30% 武器伤害
++12% 子弹大小
++5% 爆炸半径
+-12% 射速</t>
+  </si>
+  <si>
+    <t>你的子弹在被摧毁时会分裂成较弱的迷你子弹
+子弹的大小和数量会影响每个子弹的碎片数量
+-15% 射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射武器会从侧面发射一对较小的子弹。每发射 5 个子弹，就会额外发射一对
+追踪子弹大大提高瞄准能力并且不会很快退化
+追踪子弹的总伤害为 -70%，总爆炸半径和速度为 -60%
++10% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次连续射击时，武器都会增加 1% 的总射速，最多100%。
+射击时 -80% 击退。
+当你连续开火时，你的武器会对你的血量造成自我伤害</t>
+  </si>
+  <si>
+    <t>血量增强</t>
+  </si>
+  <si>
+    <t>+3 装甲
+装甲能够减少血量所受到的固定伤害值，提供对快速的轻型伤害的保护
+装甲无法减少燃烧伤害或自身伤害，并且不能将伤害减少到低于1点</t>
+  </si>
+  <si>
+    <t>+10% 血量伤害抗性
++20% 撞击击退效果对目标
++20% 撞击击退抗性
+当你直接撞击血量时，你会对附近目标造成相当于撞击伤害25%的爆炸伤害。</t>
+  </si>
+  <si>
+    <t>+40% 再生
+随着时间的推移，提高血量被动恢复的速度
+血量以与最大血量成比例的速率再生</t>
+  </si>
+  <si>
+    <t>增加被动护盾再生能力
+护盾以与最大护盾成比例的速率再生
++10% 再生速度
+在有护盾的情况下，护盾以 75% 的效果再生
+在有护盾的情况下，血量以 50% 的效果再生
+在无护盾的情况下，血量以 100% 的效果再生</t>
+  </si>
+  <si>
+    <t>目标受到的全局伤害与你的受损程度成正比，最高可增加50%伤害
+该加成平均了你的血量和护盾受损的比例。</t>
+  </si>
+  <si>
+    <t>+40 基础血量
++1 覆盖层
+失去护盾
+将升级池中除狂野护盾升级外的所有护盾升级取消，并返还相应数量的升级点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动时留下一条燃烧目标的痕迹，造成 120 点伤害/秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你的护盾破裂时，它会发生剧烈的放电，对附近的目标造成 1000 点爆炸伤害。
++5% 最大护盾值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为任何护盾增加武装护盾效果
+在武装护盾效果半径内的目标承受 +20% 总伤害，根据护盾效果强度进行修正</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1587,9 +1573,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1627,13 +1613,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -1666,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>4</v>
@@ -1732,13 +1718,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1766,10 +1752,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -1803,13 +1789,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="E6" s="11">
         <v>-0.15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4">
         <v>1002</v>
@@ -1837,16 +1823,16 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4">
         <v>1001</v>
@@ -1870,22 +1856,22 @@
     </row>
     <row r="8" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4">
         <v>1001</v>
@@ -1913,16 +1899,16 @@
         <v>1005</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="E9" s="20">
         <v>0.1</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9" s="17">
         <v>1001</v>
@@ -1950,16 +1936,16 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4">
         <v>1002</v>
@@ -1987,16 +1973,16 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G11" s="4">
         <v>1002</v>
@@ -2020,22 +2006,22 @@
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B12" s="16">
         <v>1008</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G12" s="17">
         <v>1002</v>
@@ -2063,16 +2049,16 @@
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4">
         <v>1003</v>
@@ -2100,16 +2086,16 @@
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4">
         <v>-0.4</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G14" s="4">
         <v>1003</v>
@@ -2133,22 +2119,22 @@
     </row>
     <row r="15" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4">
         <v>1003</v>
@@ -2176,16 +2162,16 @@
         <v>1012</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G16" s="17">
         <v>1003</v>
@@ -2213,16 +2199,16 @@
         <v>1013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G17" s="4">
         <v>1004</v>
@@ -2250,16 +2236,16 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G18" s="4">
         <v>1004</v>
@@ -2287,16 +2273,16 @@
         <v>1015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E19" s="4">
         <v>0.15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G19" s="4">
         <v>1004</v>
@@ -2320,22 +2306,22 @@
     </row>
     <row r="20" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3">
         <v>1016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="E20" s="4">
         <v>0.3</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4">
         <v>1004</v>
@@ -2363,16 +2349,16 @@
         <v>1017</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E21" s="4">
         <v>0.1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G21" s="4">
         <v>1005</v>
@@ -2400,16 +2386,16 @@
         <v>1018</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E22" s="4">
         <v>0.2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G22" s="4">
         <v>1005</v>
@@ -2437,16 +2423,16 @@
         <v>1019</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G23" s="4">
         <v>1005</v>
@@ -2474,16 +2460,16 @@
         <v>1020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E24" s="4">
         <v>0.03</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G24" s="4">
         <v>1005</v>
@@ -2511,16 +2497,16 @@
         <v>1021</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G25" s="4">
         <v>1006</v>
@@ -2548,16 +2534,16 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G26" s="4">
         <v>1006</v>
@@ -2581,20 +2567,20 @@
     </row>
     <row r="27" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3">
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G27" s="4">
         <v>1006</v>
@@ -2622,16 +2608,16 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G28" s="4">
         <v>1006</v>
@@ -2659,16 +2645,16 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E29" s="4">
         <v>0.2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G29" s="4">
         <v>1007</v>
@@ -2692,20 +2678,20 @@
     </row>
     <row r="30" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3">
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G30" s="4">
         <v>1007</v>
@@ -2733,16 +2719,16 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G31" s="4">
         <v>1007</v>
@@ -2766,22 +2752,22 @@
     </row>
     <row r="32" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B32" s="3">
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G32" s="4">
         <v>1007</v>
@@ -2805,22 +2791,22 @@
     </row>
     <row r="33" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="B33" s="3">
         <v>1029</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="E33" s="4">
         <v>0.4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G33" s="4">
         <v>1008</v>
@@ -2844,20 +2830,20 @@
     </row>
     <row r="34" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B34" s="3">
         <v>1030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G34" s="4">
         <v>1008</v>
@@ -2881,20 +2867,20 @@
     </row>
     <row r="35" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B35" s="3">
         <v>1031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G35" s="4">
         <v>1008</v>
@@ -2918,20 +2904,20 @@
     </row>
     <row r="36" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B36" s="3">
         <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G36" s="4">
         <v>1008</v>
@@ -2959,16 +2945,16 @@
         <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E37" s="4">
         <v>0.25</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G37" s="4">
         <v>1009</v>
@@ -2992,20 +2978,20 @@
     </row>
     <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B38" s="3">
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G38" s="4">
         <v>1009</v>
@@ -3029,22 +3015,22 @@
     </row>
     <row r="39" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B39" s="3">
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="G39" s="4">
         <v>1009</v>
@@ -3072,16 +3058,16 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="G40" s="4">
         <v>1009</v>
@@ -3109,16 +3095,16 @@
         <v>1037</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E41" s="4">
         <v>0.2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="G41" s="4">
         <v>1010</v>
@@ -3146,14 +3132,14 @@
         <v>1038</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="G42" s="4">
         <v>1010</v>
@@ -3181,16 +3167,16 @@
         <v>1039</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="G43" s="4">
         <v>1010</v>
@@ -3214,22 +3200,22 @@
     </row>
     <row r="44" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B44" s="3">
         <v>1040</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G44" s="4">
         <v>1010</v>
@@ -3257,16 +3243,16 @@
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="E45" s="4">
         <v>0.2</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="G45" s="4">
         <v>1011</v>
@@ -3290,20 +3276,20 @@
     </row>
     <row r="46" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3">
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G46" s="4">
         <v>1011</v>
@@ -3331,16 +3317,16 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="G47" s="4">
         <v>1011</v>
@@ -3364,20 +3350,20 @@
     </row>
     <row r="48" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B48" s="3">
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G48" s="4">
         <v>1011</v>
@@ -3401,20 +3387,20 @@
     </row>
     <row r="49" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3">
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="G49" s="4">
         <v>1012</v>
@@ -3442,16 +3428,16 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G50" s="4">
         <v>1012</v>
@@ -3475,20 +3461,20 @@
     </row>
     <row r="51" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3">
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G51" s="4">
         <v>1012</v>
@@ -3512,20 +3498,20 @@
     </row>
     <row r="52" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B52" s="3">
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G52" s="4">
         <v>1012</v>
@@ -4797,13 +4783,13 @@
         <v>8</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -4840,7 +4826,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -4907,13 +4893,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4948,7 +4934,7 @@
         <v>1001</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F5" s="11">
         <v>1005</v>
@@ -4983,13 +4969,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="4"/>
@@ -5018,16 +5004,16 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="4"/>
@@ -5056,13 +5042,13 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>102</v>
-      </c>
       <c r="E8" s="21" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F8" s="11">
         <v>1016</v>
@@ -5094,13 +5080,13 @@
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F9" s="11">
         <v>1020</v>
@@ -5132,13 +5118,13 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F10" s="4">
         <v>1024</v>
@@ -5170,13 +5156,13 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F11" s="4">
         <v>1028</v>
@@ -5208,13 +5194,13 @@
         <v>1008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F12" s="4">
         <v>1032</v>
@@ -5246,13 +5232,13 @@
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F13" s="4">
         <v>1036</v>
@@ -5284,13 +5270,13 @@
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F14" s="4">
         <v>1040</v>
@@ -5322,13 +5308,13 @@
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="F15" s="4">
         <v>1044</v>
@@ -5360,13 +5346,13 @@
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F16" s="4">
         <v>1048</v>
@@ -7795,13 +7781,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>13</v>
@@ -7839,13 +7825,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>4</v>
@@ -7913,13 +7899,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>11</v>
@@ -7945,16 +7931,16 @@
     </row>
     <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="11">
         <v>120</v>
@@ -7966,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAD7AEC-FE10-40E3-9C2F-084BC4C1D018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC8F52-6AA0-4353-B2A4-AFD13166C250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="234">
   <si>
     <t>##var</t>
   </si>
@@ -1084,6 +1084,14 @@
   <si>
     <t>为任何护盾增加武装护盾效果
 在武装护盾效果半径内的目标承受 +20% 总伤害，根据护盾效果强度进行修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经缭乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madness</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1572,7 +1580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
@@ -7740,8 +7748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1958F79-0454-41DC-B01F-B914C232051C}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -7749,7 +7757,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" style="9" customWidth="1"/>
@@ -7975,13 +7983,25 @@
     </row>
     <row r="6" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="4"/>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>60</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC8F52-6AA0-4353-B2A4-AFD13166C250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA3DE75-A923-4906-A027-3B823ACBB4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7749,7 +7749,7 @@
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -7757,7 +7757,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" style="9" customWidth="1"/>
@@ -7937,7 +7937,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA3DE75-A923-4906-A027-3B823ACBB4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D7FA0-F225-4B20-88B7-90CB40C76FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
     <sheet name="AbilityTree" sheetId="3" r:id="rId2"/>
     <sheet name="Buffs" sheetId="2" r:id="rId3"/>
+    <sheet name="Builds" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="244">
   <si>
     <t>##var</t>
   </si>
@@ -1092,6 +1093,46 @@
   </si>
   <si>
     <t>Madness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试Build</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shooter_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilities#sep=，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001，1002，1003</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1581,9 +1622,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -7748,8 +7789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1958F79-0454-41DC-B01F-B914C232051C}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -10657,4 +10698,2903 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9191AB-DC1F-4988-8ECA-D1E940FEC546}">
+  <dimension ref="A1:Z100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="9" customWidth="1"/>
+    <col min="14" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="39.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1002</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1002</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1002</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="20.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="23.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D7FA0-F225-4B20-88B7-90CB40C76FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A15FA6-43D0-47A1-9098-4C51B320195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="246">
   <si>
     <t>##var</t>
   </si>
@@ -833,12 +833,6 @@
   </si>
   <si>
     <t>Discharge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当你开火时，你的护盾会释放能量电弧，烧毁附近的目标。
-放电对于射击速度较慢的武器来说，伤害更高且射程更远。
-当你开火时，你的护盾会自我受伤。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1133,6 +1127,20 @@
   </si>
   <si>
     <t>1001，1002，1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25,0.05,-0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你开火时，你的护盾会释放能量电弧，对附近目标造成 10% 武器伤害。
+放电对于射击速度较慢的武器来说，伤害更高且射程更远。
+当你开火时，你的护盾会自我受伤，伤害为 1% 的武器伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1621,15 +1629,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="91.33203125" style="9" customWidth="1"/>
@@ -1838,7 +1846,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="11">
         <v>-0.15</v>
@@ -1875,7 +1883,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -1914,7 +1922,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>26</v>
@@ -1951,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="20">
         <v>0.1</v>
@@ -1988,7 +1996,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>55</v>
@@ -2025,7 +2033,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>60</v>
@@ -2064,7 +2072,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>63</v>
@@ -2101,7 +2109,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>56</v>
@@ -2177,7 +2185,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>57</v>
@@ -2214,7 +2222,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>66</v>
@@ -2251,7 +2259,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>80</v>
@@ -2288,7 +2296,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>85</v>
@@ -2325,7 +2333,7 @@
         <v>84</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="4">
         <v>0.15</v>
@@ -2364,7 +2372,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="4">
         <v>0.3</v>
@@ -2586,7 +2594,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>152</v>
@@ -2625,7 +2633,7 @@
         <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -2660,7 +2668,7 @@
         <v>110</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>153</v>
@@ -2694,7 +2702,7 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>115</v>
@@ -2736,7 +2744,7 @@
         <v>119</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
@@ -2810,7 +2818,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>155</v>
@@ -2849,7 +2857,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E33" s="4">
         <v>0.4</v>
@@ -2888,7 +2896,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -2925,7 +2933,7 @@
         <v>134</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -2953,7 +2961,7 @@
     </row>
     <row r="36" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="3">
         <v>1032</v>
@@ -2962,7 +2970,7 @@
         <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
@@ -3036,7 +3044,7 @@
         <v>143</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
@@ -3222,7 +3230,7 @@
         <v>169</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>167</v>
@@ -3258,10 +3266,10 @@
         <v>170</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>171</v>
@@ -3295,7 +3303,7 @@
         <v>173</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E45" s="4">
         <v>0.2</v>
@@ -3334,7 +3342,7 @@
         <v>176</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
@@ -3369,10 +3377,10 @@
         <v>178</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>179</v>
@@ -3408,9 +3416,11 @@
         <v>180</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="4"/>
+        <v>244</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="F48" s="4" t="s">
         <v>181</v>
       </c>
@@ -3435,21 +3445,19 @@
       <c r="W48" s="3"/>
     </row>
     <row r="49" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G49" s="4">
         <v>1012</v>
@@ -3477,16 +3485,16 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="G50" s="4">
         <v>1012</v>
@@ -3509,21 +3517,21 @@
       <c r="W50" s="3"/>
     </row>
     <row r="51" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="G51" s="4">
         <v>1012</v>
@@ -3553,14 +3561,14 @@
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G52" s="4">
         <v>1012</v>
@@ -5363,7 +5371,7 @@
         <v>174</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F15" s="4">
         <v>1044</v>
@@ -5395,13 +5403,13 @@
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>195</v>
       </c>
       <c r="F16" s="4">
         <v>1048</v>
@@ -8028,7 +8036,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
@@ -8041,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -10704,7 +10712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9191AB-DC1F-4988-8ECA-D1E940FEC546}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -10745,16 +10753,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -10863,16 +10871,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -10899,11 +10907,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="11">
         <v>1002</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A15FA6-43D0-47A1-9098-4C51B320195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA41D2D-8C03-43B2-B6B4-E9D64289FCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="247">
   <si>
     <t>##var</t>
   </si>
@@ -669,10 +669,6 @@
   </si>
   <si>
     <t>DeadlyWake</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>致命路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1141,6 +1137,14 @@
   </si>
   <si>
     <t>0.1,0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡呼唤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1630,9 +1634,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1846,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" s="11">
         <v>-0.15</v>
@@ -1883,7 +1887,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -1922,7 +1926,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>26</v>
@@ -1959,7 +1963,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="20">
         <v>0.1</v>
@@ -1996,7 +2000,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>55</v>
@@ -2033,7 +2037,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>60</v>
@@ -2072,7 +2076,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>63</v>
@@ -2109,7 +2113,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>56</v>
@@ -2185,7 +2189,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>57</v>
@@ -2222,7 +2226,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>66</v>
@@ -2259,7 +2263,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>80</v>
@@ -2296,7 +2300,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>85</v>
@@ -2333,7 +2337,7 @@
         <v>84</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19" s="4">
         <v>0.15</v>
@@ -2372,7 +2376,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="4">
         <v>0.3</v>
@@ -2557,10 +2561,10 @@
         <v>104</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>105</v>
@@ -2594,10 +2598,10 @@
         <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>106</v>
@@ -2633,7 +2637,7 @@
         <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -2668,10 +2672,10 @@
         <v>110</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>111</v>
@@ -2702,7 +2706,7 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>115</v>
@@ -2744,7 +2748,7 @@
         <v>119</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
@@ -2809,7 +2813,7 @@
     </row>
     <row r="32" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="3">
         <v>1028</v>
@@ -2818,10 +2822,10 @@
         <v>123</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>122</v>
@@ -2848,7 +2852,7 @@
     </row>
     <row r="33" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="3">
         <v>1029</v>
@@ -2857,7 +2861,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E33" s="4">
         <v>0.4</v>
@@ -2896,7 +2900,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -2933,7 +2937,7 @@
         <v>134</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -2961,7 +2965,7 @@
     </row>
     <row r="36" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="3">
         <v>1032</v>
@@ -2970,7 +2974,7 @@
         <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
@@ -3035,18 +3039,20 @@
     </row>
     <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="B38" s="3">
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="E38" s="4">
+        <v>120</v>
+      </c>
       <c r="F38" s="4" t="s">
         <v>142</v>
       </c>
@@ -3072,22 +3078,22 @@
     </row>
     <row r="39" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" s="3">
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G39" s="4">
         <v>1009</v>
@@ -3115,16 +3121,16 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G40" s="4">
         <v>1009</v>
@@ -3152,16 +3158,16 @@
         <v>1037</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" s="4">
         <v>0.2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G41" s="4">
         <v>1010</v>
@@ -3189,14 +3195,14 @@
         <v>1038</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G42" s="4">
         <v>1010</v>
@@ -3224,16 +3230,16 @@
         <v>1039</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G43" s="4">
         <v>1010</v>
@@ -3263,16 +3269,16 @@
         <v>1040</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="G44" s="4">
         <v>1010</v>
@@ -3300,16 +3306,16 @@
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45" s="4">
         <v>0.2</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G45" s="4">
         <v>1011</v>
@@ -3333,20 +3339,22 @@
     </row>
     <row r="46" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="B46" s="3">
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="4"/>
+        <v>228</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="F46" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G46" s="4">
         <v>1011</v>
@@ -3374,16 +3382,16 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="G47" s="4">
         <v>1011</v>
@@ -3406,23 +3414,21 @@
       <c r="W47" s="3"/>
     </row>
     <row r="48" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A48" s="3"/>
       <c r="B48" s="3">
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="G48" s="4">
         <v>1011</v>
@@ -3450,14 +3456,14 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G49" s="4">
         <v>1012</v>
@@ -3485,16 +3491,16 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="G50" s="4">
         <v>1012</v>
@@ -3522,16 +3528,16 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G51" s="4">
         <v>1012</v>
@@ -3561,14 +3567,14 @@
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G52" s="4">
         <v>1012</v>
@@ -5292,10 +5298,10 @@
         <v>141</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="F13" s="4">
         <v>1036</v>
@@ -5327,13 +5333,13 @@
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14" s="4">
         <v>1040</v>
@@ -5365,13 +5371,13 @@
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="4">
         <v>1044</v>
@@ -5403,13 +5409,13 @@
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="F16" s="4">
         <v>1048</v>
@@ -8036,7 +8042,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
@@ -8049,7 +8055,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -10753,16 +10759,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -10871,16 +10877,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -10907,11 +10913,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="11">
         <v>1002</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA41D2D-8C03-43B2-B6B4-E9D64289FCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BEDF12-ECCB-469D-9B36-4D83D851FFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="247">
   <si>
     <t>##var</t>
   </si>
@@ -896,14 +896,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+55 最大护盾
-+15% 护盾伤害抵抗
-+15% 护盾效果强度
-当你的护盾正在冷却时，它对因受到伤害而导致的冷却延迟有更强的抵抗力
--85% 最大生命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>盾牌冷却 -20%。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -924,16 +916,6 @@
     <t>+50% 护盾效果半径
 护盾冷却时间 +10%
 最大护盾 -10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>todo|图标到这</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不开火时，你的武器会进行校准
-校准可以减少武器的扩散，同时提高总体瞄准和速度
-当你的武器处于冷却状态时，校准会快速重置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -951,11 +933,6 @@
   <si>
     <t>你的子弹射程越远，造成的总伤害就越高，最多 +120%
 +20% 射击速度</t>
-  </si>
-  <si>
-    <t>在你的中央投射物上增加20%的总武器投射物伤害和爆炸半径。其他武器投射物也会相应地调整总投射物伤害和爆炸半径，逐渐减少到最外层投射物为止，最终调整为0%。
-对于你的中央子弹，增加30%的子弹大小。你其他的子弹也会进行调整，子弹大小逐渐减小，最外层的子弹减小到-30%。
-+10% 武器扩散</t>
   </si>
   <si>
     <t>基础子弹数量 +100%。
@@ -984,167 +961,196 @@
 随着时间的推移，代币会迅速减少</t>
   </si>
   <si>
-    <t>按住开火键来充能武器
+    <t>武器瞄准能力 +40%
+-20% 子弹总速度
+-5% 射速</t>
+  </si>
+  <si>
+    <t>+20% 子弹大小
++15% 武器伤害
++5% 爆炸半径</t>
+  </si>
+  <si>
+    <t>+30% 武器伤害
++12% 子弹大小
++5% 爆炸半径
+-12% 射速</t>
+  </si>
+  <si>
+    <t>你的子弹在被摧毁时会分裂成较弱的迷你子弹
+子弹的大小和数量会影响每个子弹的碎片数量
+-15% 射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量增强</t>
+  </si>
+  <si>
+    <t>+10% 血量伤害抗性
++20% 撞击击退效果对目标
++20% 撞击击退抗性
+当你直接撞击血量时，你会对附近目标造成相当于撞击伤害25%的爆炸伤害。</t>
+  </si>
+  <si>
+    <t>+40% 再生
+随着时间的推移，提高血量被动恢复的速度
+血量以与最大血量成比例的速率再生</t>
+  </si>
+  <si>
+    <t>移动时留下一条燃烧目标的痕迹，造成 120 点伤害/秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你的护盾破裂时，它会发生剧烈的放电，对附近的目标造成 1000 点爆炸伤害。
++5% 最大护盾值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为任何护盾增加武装护盾效果
+在武装护盾效果半径内的目标承受 +20% 总伤害，根据护盾效果强度进行修正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经缭乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试Build</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shooter_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilities#sep=，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001，1002，1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25,0.05,-0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你开火时，你的护盾会释放能量电弧，对附近目标造成 10% 武器伤害。
+放电对于射击速度较慢的武器来说，伤害更高且射程更远。
+当你开火时，你的护盾会自我受伤，伤害为 1% 的武器伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡呼唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+55 最大护盾
++15% 护盾伤害抗性
++15% 护盾效果强度
+当你的护盾正在冷却时，它对因受到伤害而导致的冷却延迟有更强的抵抗力（没做）
+-85% 最大生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你受到的伤害越大，目标承受的全局伤害就越大，最多 + 50%
+该加成平均了你的血量和护盾受损的比例。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|图标到这</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3 镀层
+镀层能够减少固定数值的船体损坏，提供防御迅速轻型伤害的保护。
+镀层无法将伤害降低到1以下。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[没做] 不开火时，你的武器会进行校准
+校准可以减少武器的扩散，同时提高总体瞄准和速度
+当你的武器处于冷却状态时，校准会快速重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[没做] 在你的中央投射物上增加20%的总武器投射物伤害和爆炸半径。其他武器投射物也会相应地调整总投射物伤害和爆炸半径，逐渐减少到最外层投射物为止，最终调整为0%。
+对于你的中央子弹，增加30%的子弹大小。你其他的子弹也会进行调整，子弹大小逐渐减小，最外层的子弹减小到-30%。
++10% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[没做] 按住开火键来充能武器
 充能可以提高武器的总伤害、弹道速度、弹道大小和爆炸半径。松开开火键释放攻击。
 对于具有多个基础弹道的武器，充能可以提高弹道数量。
 射速的修饰器会影响充能速度。
 对于天生具备充能能力的武器，充能射击会增加充能速度以及任何充能消耗。
 充能时推力减少30%。</t>
-  </si>
-  <si>
-    <t>武器瞄准能力 +40%
--20% 子弹总速度
--5% 射速</t>
-  </si>
-  <si>
-    <t>+20% 子弹大小
-+15% 武器伤害
-+5% 爆炸半径</t>
-  </si>
-  <si>
-    <t>+30% 武器伤害
-+12% 子弹大小
-+5% 爆炸半径
--12% 射速</t>
-  </si>
-  <si>
-    <t>你的子弹在被摧毁时会分裂成较弱的迷你子弹
-子弹的大小和数量会影响每个子弹的碎片数量
--15% 射速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射武器会从侧面发射一对较小的子弹。每发射 5 个子弹，就会额外发射一对
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[没做] 发射武器会从侧面发射一对较小的子弹。每发射 5 个子弹，就会额外发射一对
 追踪子弹大大提高瞄准能力并且不会很快退化
 追踪子弹的总伤害为 -70%，总爆炸半径和速度为 -60%
 +10% 武器扩散</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每次连续射击时，武器都会增加 1% 的总射速，最多100%。
-射击时 -80% 击退。
-当你连续开火时，你的武器会对你的血量造成自我伤害</t>
-  </si>
-  <si>
-    <t>血量增强</t>
-  </si>
-  <si>
-    <t>+3 装甲
-装甲能够减少血量所受到的固定伤害值，提供对快速的轻型伤害的保护
-装甲无法减少燃烧伤害或自身伤害，并且不能将伤害减少到低于1点</t>
-  </si>
-  <si>
-    <t>+10% 血量伤害抗性
-+20% 撞击击退效果对目标
-+20% 撞击击退抗性
-当你直接撞击血量时，你会对附近目标造成相当于撞击伤害25%的爆炸伤害。</t>
-  </si>
-  <si>
-    <t>+40% 再生
-随着时间的推移，提高血量被动恢复的速度
-血量以与最大血量成比例的速率再生</t>
-  </si>
-  <si>
-    <t>增加被动护盾再生能力
+    <t>[没做] 增加被动护盾再生能力
 护盾以与最大护盾成比例的速率再生
 +10% 再生速度
 在有护盾的情况下，护盾以 75% 的效果再生
 在有护盾的情况下，血量以 50% 的效果再生
 在无护盾的情况下，血量以 100% 的效果再生</t>
-  </si>
-  <si>
-    <t>目标受到的全局伤害与你的受损程度成正比，最高可增加50%伤害
-该加成平均了你的血量和护盾受损的比例。</t>
-  </si>
-  <si>
-    <t>+40 基础血量
-+1 覆盖层
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[没做] +40 基础血量
++1 镀层
 失去护盾
 将升级池中除狂野护盾升级外的所有护盾升级取消，并返还相应数量的升级点。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>移动时留下一条燃烧目标的痕迹，造成 120 点伤害/秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当你的护盾破裂时，它会发生剧烈的放电，对附近的目标造成 1000 点爆炸伤害。
-+5% 最大护盾值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为任何护盾增加武装护盾效果
-在武装护盾效果半径内的目标承受 +20% 总伤害，根据护盾效果强度进行修正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神经缭乱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Madness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试Build</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shooter_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>abilities#sep=，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001，1002，1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25,0.05,-0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当你开火时，你的护盾会释放能量电弧，对附近目标造成 10% 武器伤害。
-放电对于射击速度较慢的武器来说，伤害更高且射程更远。
-当你开火时，你的护盾会自我受伤，伤害为 1% 的武器伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,0.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡呼唤</t>
+    <t>每次连续射击时，武器都会增加 1% 的总射速，最多100%。
+射击时 -80% 击退。
+当你连续开火时，会造成最大伤害 1% 的自我伤害。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1634,9 +1640,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1856,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E6" s="11">
         <v>-0.15</v>
@@ -1887,7 +1893,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -1926,7 +1932,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>26</v>
@@ -1963,7 +1969,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E9" s="20">
         <v>0.1</v>
@@ -2000,7 +2006,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>55</v>
@@ -2037,7 +2043,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>60</v>
@@ -2076,7 +2082,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>63</v>
@@ -2113,7 +2119,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>56</v>
@@ -2189,7 +2195,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>57</v>
@@ -2226,7 +2232,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>66</v>
@@ -2263,7 +2269,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>80</v>
@@ -2300,7 +2306,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>85</v>
@@ -2337,7 +2343,7 @@
         <v>84</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E19" s="4">
         <v>0.15</v>
@@ -2376,7 +2382,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="E20" s="4">
         <v>0.3</v>
@@ -2598,7 +2604,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>151</v>
@@ -2637,7 +2643,7 @@
         <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -2672,7 +2678,7 @@
         <v>110</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>152</v>
@@ -2706,7 +2712,7 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>115</v>
@@ -2738,9 +2744,7 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>1026</v>
       </c>
@@ -2748,9 +2752,11 @@
         <v>119</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
       <c r="F30" s="4" t="s">
         <v>118</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>154</v>
@@ -2861,7 +2867,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E33" s="4">
         <v>0.4</v>
@@ -2900,7 +2906,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -2937,7 +2943,7 @@
         <v>134</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -2965,7 +2971,7 @@
     </row>
     <row r="36" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="B36" s="3">
         <v>1032</v>
@@ -2974,9 +2980,11 @@
         <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F36" s="4" t="s">
         <v>135</v>
       </c>
@@ -3045,10 +3053,10 @@
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E38" s="4">
         <v>120</v>
@@ -3262,9 +3270,7 @@
       <c r="W43" s="3"/>
     </row>
     <row r="44" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>1040</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>169</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>195</v>
@@ -3309,7 +3315,7 @@
         <v>172</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E45" s="4">
         <v>0.2</v>
@@ -3348,10 +3354,10 @@
         <v>175</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>174</v>
@@ -3385,10 +3391,10 @@
         <v>177</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>178</v>
@@ -3422,10 +3428,10 @@
         <v>179</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>180</v>
@@ -3494,10 +3500,10 @@
         <v>184</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>185</v>
@@ -3534,7 +3540,7 @@
         <v>187</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>188</v>
@@ -3561,7 +3567,7 @@
     </row>
     <row r="52" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="B52" s="3">
         <v>1048</v>
@@ -3570,9 +3576,11 @@
         <v>189</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E52" s="4"/>
+        <v>218</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.2</v>
+      </c>
       <c r="F52" s="4" t="s">
         <v>190</v>
       </c>
@@ -8042,7 +8050,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
@@ -8055,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -10759,16 +10767,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -10877,16 +10885,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -10913,11 +10921,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F5" s="11">
         <v>1002</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BEDF12-ECCB-469D-9B36-4D83D851FFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF6489-9A8A-48B8-8428-0ABF2024F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="246">
   <si>
     <t>##var</t>
   </si>
@@ -1091,10 +1091,6 @@
   <si>
     <t>你受到的伤害越大，目标承受的全局伤害就越大，最多 + 50%
 该加成平均了你的血量和护盾受损的比例。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>|图标到这</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1640,9 +1636,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1928,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>26</v>
@@ -2082,7 +2078,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>63</v>
@@ -2195,7 +2191,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>57</v>
@@ -2382,7 +2378,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E20" s="4">
         <v>0.3</v>
@@ -2643,7 +2639,7 @@
         <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -2752,7 +2748,7 @@
         <v>119</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -2906,7 +2902,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -2943,7 +2939,7 @@
         <v>134</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -2970,9 +2966,7 @@
       <c r="W35" s="3"/>
     </row>
     <row r="36" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>238</v>
-      </c>
+      <c r="A36" s="3"/>
       <c r="B36" s="3">
         <v>1032</v>
       </c>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF6489-9A8A-48B8-8428-0ABF2024F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E9AB7-CC11-4850-A48E-C9890268F255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="247">
   <si>
     <t>##var</t>
   </si>
@@ -1147,6 +1147,10 @@
     <t>每次连续射击时，武器都会增加 1% 的总射速，最多100%。
 射击时 -80% 击退。
 当你连续开火时，会造成最大伤害 1% 的自我伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25,0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1636,9 +1640,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3202,7 +3206,9 @@
       <c r="D42" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4">
+        <v>0.05</v>
+      </c>
       <c r="F42" s="4" t="s">
         <v>163</v>
       </c>
@@ -3461,7 +3467,9 @@
       <c r="D49" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="F49" s="4" t="s">
         <v>181</v>
       </c>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E9AB7-CC11-4850-A48E-C9890268F255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA7B34-71F8-42C2-ADFC-855E9B59C9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,11 +956,6 @@
 +20% 射速</t>
   </si>
   <si>
-    <t>每当击败敌人时都会获得战争代币
-每层代币令射速 -0.75%、推力 +0.75%，最高为 30%
-随着时间的推移，代币会迅速减少</t>
-  </si>
-  <si>
     <t>武器瞄准能力 +40%
 -20% 子弹总速度
 -5% 射速</t>
@@ -1151,6 +1146,12 @@
   </si>
   <si>
     <t>0.25,0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当击败敌人时都会获得战争代币
+每层代币令射速 -0.75%、推力 +0.75%，最高为 30%
+随着时间的推移，代币会迅速减少</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1640,9 +1641,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>26</v>
@@ -2043,7 +2044,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>60</v>
@@ -2082,7 +2083,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>63</v>
@@ -2195,7 +2196,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>57</v>
@@ -2269,7 +2270,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>80</v>
@@ -2306,7 +2307,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>85</v>
@@ -2343,7 +2344,7 @@
         <v>84</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E19" s="4">
         <v>0.15</v>
@@ -2382,7 +2383,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E20" s="4">
         <v>0.3</v>
@@ -2604,7 +2605,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>151</v>
@@ -2643,7 +2644,7 @@
         <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -2712,7 +2713,7 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>115</v>
@@ -2752,7 +2753,7 @@
         <v>119</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -2828,7 +2829,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>154</v>
@@ -2867,7 +2868,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E33" s="4">
         <v>0.4</v>
@@ -2906,7 +2907,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -2943,7 +2944,7 @@
         <v>134</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -2978,7 +2979,7 @@
         <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E36" s="4">
         <v>0.5</v>
@@ -3051,10 +3052,10 @@
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E38" s="4">
         <v>120</v>
@@ -3278,7 +3279,7 @@
         <v>169</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>195</v>
@@ -3354,10 +3355,10 @@
         <v>175</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>174</v>
@@ -3428,10 +3429,10 @@
         <v>179</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>180</v>
@@ -3468,7 +3469,7 @@
         <v>183</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>181</v>
@@ -3542,7 +3543,7 @@
         <v>187</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>188</v>
@@ -3578,7 +3579,7 @@
         <v>189</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E52" s="4">
         <v>0.2</v>
@@ -8052,7 +8053,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
@@ -8065,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -10769,16 +10770,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -10887,16 +10888,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -10923,11 +10924,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F5" s="11">
         <v>1002</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA7B34-71F8-42C2-ADFC-855E9B59C9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF31216-E3F5-45BC-ACC2-1DB137FA5207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
-    <sheet name="AbilityTree" sheetId="3" r:id="rId2"/>
-    <sheet name="Buffs" sheetId="2" r:id="rId3"/>
-    <sheet name="Builds" sheetId="4" r:id="rId4"/>
+    <sheet name="MutationAbilities" sheetId="5" r:id="rId2"/>
+    <sheet name="AbilityTree" sheetId="3" r:id="rId3"/>
+    <sheet name="Buffs" sheetId="2" r:id="rId4"/>
+    <sheet name="Builds" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,8 +96,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{AB13374F-D704-43FB-8E00-CE5E3969C54C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最后一个数字是每多少秒减少一层</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="289">
   <si>
     <t>##var</t>
   </si>
@@ -1152,6 +1189,175 @@
     <t>每当击败敌人时都会获得战争代币
 每层代币令射速 -0.75%、推力 +0.75%，最高为 30%
 随着时间的推移，代币会迅速减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本模块树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁模块树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力全开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器伤害 +20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增幅器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1049</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050,1051</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连锁反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹退化速度 -20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀一名敌人后，10% 的概率释放出脉冲，眩晕附近的敌人 2s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速 +10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀一名敌人后，10% 的概率减速附近敌人，持续 3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭曲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速弹道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化理论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远足算子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬眠合剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1054,1055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firepower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎打中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlmostHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速移动时，50% 的概率使子弹穿透 1 次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ampli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20% 的概率使子弹穿透 1 次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rampage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横冲直撞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀敌人有 20% 的概率进入狂暴状态，持续 6s
+狂暴状态：+ 50% 的伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,6,0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChainReaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dizziness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvolutionTheory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastTrajectory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distortion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除 2 是减速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlowDown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1205,7 +1411,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1234,6 +1440,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -1273,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1322,6 +1540,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1641,9 +1882,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3608,6 +3849,2701 @@
       <c r="W52" s="3"/>
     </row>
     <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1049</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1013</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1050</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1013</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+    </row>
+    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1051</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1013</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1052</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1013</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1053</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1014</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+    </row>
+    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1054</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1014</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+    </row>
+    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1055</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1014</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1056</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1014</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+    </row>
+    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+    </row>
+    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+    </row>
+    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+    </row>
+    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+    </row>
+    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+    </row>
+    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+    </row>
+    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+    </row>
+    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+    </row>
+    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+    </row>
+    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+    </row>
+    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+    </row>
+    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+    </row>
+    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+    </row>
+    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+    </row>
+    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+    </row>
+    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+    </row>
+    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+    </row>
+    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+    </row>
+    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+    </row>
+    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+    </row>
+    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+    </row>
+    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+    </row>
+    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+    </row>
+    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+    </row>
+    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+    </row>
+    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+    </row>
+    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+    </row>
+    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+    </row>
+    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C61471-F604-4DDD-B779-E24A9DCF6AF1}">
+  <dimension ref="A1:W97"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
+    <col min="11" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+    </row>
+    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+    </row>
+    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4732,95 +7668,19 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
     </row>
-    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-    </row>
-    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E385BC-6E48-46F4-A35A-633189AFEC44}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -4997,23 +7857,25 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
+      <c r="A5" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="22">
         <v>1001</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="23">
         <v>1001</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="24">
         <v>1005</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -5035,23 +7897,23 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22">
         <v>1002</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -5073,23 +7935,23 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22">
         <v>1003</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -5111,23 +7973,23 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="20.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22">
         <v>1004</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="24">
         <v>1016</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5149,23 +8011,23 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="23.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="22">
         <v>1005</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="24">
         <v>1020</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5187,23 +8049,23 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22">
         <v>1006</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="27">
         <v>1024</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -5225,23 +8087,23 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22">
         <v>1007</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="27">
         <v>1028</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -5263,23 +8125,23 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22">
         <v>1008</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="27">
         <v>1032</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5301,23 +8163,23 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22">
         <v>1009</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="27">
         <v>1036</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5339,23 +8201,23 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22">
         <v>1010</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="27">
         <v>1040</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -5377,23 +8239,23 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22">
         <v>1011</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="27">
         <v>1044</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5415,23 +8277,23 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22">
         <v>1012</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="27">
         <v>1048</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5453,13 +8315,25 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1052</v>
+      </c>
+      <c r="G17" s="30"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -5482,11 +8356,21 @@
     </row>
     <row r="18" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1056</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -7810,12 +10694,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1958F79-0454-41DC-B01F-B914C232051C}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -8089,13 +10973,23 @@
     </row>
     <row r="7" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -8117,13 +11011,27 @@
     </row>
     <row r="8" spans="1:26" ht="20.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -10725,7 +13633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9191AB-DC1F-4988-8ECA-D1E940FEC546}">
   <dimension ref="A1:Z100"/>
   <sheetViews>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF31216-E3F5-45BC-ACC2-1DB137FA5207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF357525-BED9-4CB5-B7C0-AC7AED322408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="302">
   <si>
     <t>##var</t>
   </si>
@@ -1256,14 +1256,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>远足算子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬眠合剂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1053</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1358,6 +1350,56 @@
   </si>
   <si>
     <t>SlowDown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>险峻理想</t>
+  </si>
+  <si>
+    <t>远足算子</t>
+  </si>
+  <si>
+    <t>映射规约</t>
+  </si>
+  <si>
+    <t>存储单元</t>
+  </si>
+  <si>
+    <t>皇家回廊</t>
+  </si>
+  <si>
+    <t>浩劫洪流</t>
+  </si>
+  <si>
+    <t>灵感面纱</t>
+  </si>
+  <si>
+    <t>直言不讳</t>
+  </si>
+  <si>
+    <t>留声回响</t>
+  </si>
+  <si>
+    <t>美妙天堂</t>
+  </si>
+  <si>
+    <t>熵增变化</t>
+  </si>
+  <si>
+    <t>阈限森林</t>
+  </si>
+  <si>
+    <t>三层汉堡</t>
+  </si>
+  <si>
+    <t>获得雷达，会周期性扫描周围敌人。
+每有一名敌人被扫描到，子弹会增加追踪的强度。
+每个被扫描到的敌人会 -1% 自身生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每击败一名敌人，获得一个僚机。
+每个僚机被击败后，转化为敌人。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1882,9 +1924,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:A60"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3865,7 +3907,7 @@
         <v>0.2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G53" s="4">
         <v>1013</v>
@@ -3895,16 +3937,16 @@
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G54" s="4">
         <v>1013</v>
@@ -3937,13 +3979,13 @@
         <v>252</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G55" s="4">
         <v>1013</v>
@@ -3973,16 +4015,16 @@
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G56" s="4">
         <v>1013</v>
@@ -4018,10 +4060,10 @@
         <v>257</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G57" s="4">
         <v>1014</v>
@@ -4060,7 +4102,7 @@
         <v>0.2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G58" s="4">
         <v>1014</v>
@@ -4099,7 +4141,7 @@
         <v>-0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G59" s="4">
         <v>1014</v>
@@ -4134,9 +4176,11 @@
       <c r="D60" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4">
+        <v>0.1</v>
+      </c>
       <c r="F60" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G60" s="4">
         <v>1014</v>
@@ -5171,7 +5215,7 @@
   <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -5343,7 +5387,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5370,7 +5414,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5393,11 +5437,15 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -5418,11 +5466,15 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -5446,7 +5498,9 @@
     <row r="9" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -5471,7 +5525,9 @@
     <row r="10" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -5496,7 +5552,9 @@
     <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -5521,7 +5579,9 @@
     <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>294</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -5546,7 +5606,9 @@
     <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -5571,7 +5633,9 @@
     <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -5596,7 +5660,9 @@
     <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -5621,7 +5687,9 @@
     <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -5646,7 +5714,9 @@
     <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -7679,8 +7749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E385BC-6E48-46F4-A35A-633189AFEC44}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -8363,10 +8433,10 @@
         <v>255</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F18" s="4">
         <v>1056</v>
@@ -10977,7 +11047,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
@@ -10988,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11015,10 +11085,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -11030,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF357525-BED9-4CB5-B7C0-AC7AED322408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AC1F78-9ABD-4566-9171-5162D039A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -1051,10 +1051,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试Build</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>shooter_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1084,10 +1080,6 @@
   </si>
   <si>
     <t>abilities#sep=，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001，1002，1003</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1400,6 +1392,14 @@
   <si>
     <t>每击败一名敌人，获得一个僚机。
 每个僚机被击败后，转化为敌人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HypoerMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1045，1046，1048，1033，1035，1029，1030，1032，1041，10434</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1923,10 +1923,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2216,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>26</v>
@@ -2327,7 +2327,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>60</v>
@@ -2366,7 +2366,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>63</v>
@@ -2479,7 +2479,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>57</v>
@@ -2666,7 +2666,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E20" s="4">
         <v>0.3</v>
@@ -2927,7 +2927,7 @@
         <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -3036,7 +3036,7 @@
         <v>119</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -3190,7 +3190,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -3227,7 +3227,7 @@
         <v>134</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -3262,7 +3262,7 @@
         <v>136</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E36" s="4">
         <v>0.5</v>
@@ -3335,7 +3335,7 @@
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>215</v>
@@ -3562,7 +3562,7 @@
         <v>169</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>195</v>
@@ -3641,7 +3641,7 @@
         <v>216</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>174</v>
@@ -3712,10 +3712,10 @@
         <v>179</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>180</v>
@@ -3752,7 +3752,7 @@
         <v>183</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>181</v>
@@ -3826,7 +3826,7 @@
         <v>187</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>188</v>
@@ -3898,16 +3898,16 @@
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E53" s="4">
         <v>0.2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G53" s="4">
         <v>1013</v>
@@ -3937,16 +3937,16 @@
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G54" s="4">
         <v>1013</v>
@@ -3976,16 +3976,16 @@
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G55" s="4">
         <v>1013</v>
@@ -4015,16 +4015,16 @@
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G56" s="4">
         <v>1013</v>
@@ -4054,16 +4054,16 @@
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="E57" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G57" s="4">
         <v>1014</v>
@@ -4093,16 +4093,16 @@
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E58" s="4">
         <v>0.2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G58" s="4">
         <v>1014</v>
@@ -4132,16 +4132,16 @@
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E59" s="4">
         <v>-0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G59" s="4">
         <v>1014</v>
@@ -4171,16 +4171,16 @@
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E60" s="4">
         <v>0.1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G60" s="4">
         <v>1014</v>
@@ -5387,7 +5387,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5414,7 +5414,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5441,10 +5441,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -5470,10 +5470,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="4"/>
@@ -5499,7 +5499,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5526,7 +5526,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5553,7 +5553,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
@@ -5580,7 +5580,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
@@ -5607,7 +5607,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5634,7 +5634,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
@@ -5661,7 +5661,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
@@ -5688,7 +5688,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5715,7 +5715,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B5" s="22">
         <v>1001</v>
@@ -8386,19 +8386,19 @@
     </row>
     <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B17" s="28">
         <v>1013</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F17" s="30">
         <v>1052</v>
@@ -8430,13 +8430,13 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F18" s="4">
         <v>1056</v>
@@ -11047,7 +11047,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
@@ -11058,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11085,10 +11085,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -11100,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13707,8 +13707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9191AB-DC1F-4988-8ECA-D1E940FEC546}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -13717,7 +13717,7 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" style="9" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="9" customWidth="1"/>
     <col min="8" max="8" width="25" style="9" customWidth="1"/>
@@ -13748,16 +13748,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -13866,16 +13866,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -13902,20 +13902,20 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1002</v>
+        <v>301</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1000</v>
       </c>
       <c r="G5" s="11">
         <v>1002</v>
       </c>
       <c r="H5" s="4">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AC1F78-9ABD-4566-9171-5162D039A35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CBCB57-FE64-4959-B126-7391259BDBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="302">
   <si>
     <t>##var</t>
   </si>
@@ -357,10 +357,6 @@
   </si>
   <si>
     <t>2,-0.2,-0.1,0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2,0,0.3,-0.3,0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -968,10 +964,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你的子弹射程越远，造成的总伤害就越高，最多 +120%
-+20% 射击速度</t>
-  </si>
-  <si>
     <t>基础子弹数量 +100%。
 增加 1 个子弹。
 减少 15% 的子弹爆炸半径和子弹伤害。
@@ -1121,27 +1113,6 @@
     <t>+3 镀层
 镀层能够减少固定数值的船体损坏，提供防御迅速轻型伤害的保护。
 镀层无法将伤害降低到1以下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[没做] 不开火时，你的武器会进行校准
-校准可以减少武器的扩散，同时提高总体瞄准和速度
-当你的武器处于冷却状态时，校准会快速重置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[没做] 在你的中央投射物上增加20%的总武器投射物伤害和爆炸半径。其他武器投射物也会相应地调整总投射物伤害和爆炸半径，逐渐减少到最外层投射物为止，最终调整为0%。
-对于你的中央子弹，增加30%的子弹大小。你其他的子弹也会进行调整，子弹大小逐渐减小，最外层的子弹减小到-30%。
-+10% 武器扩散</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[没做] 按住开火键来充能武器
-充能可以提高武器的总伤害、弹道速度、弹道大小和爆炸半径。松开开火键释放攻击。
-对于具有多个基础弹道的武器，充能可以提高弹道数量。
-射速的修饰器会影响充能速度。
-对于天生具备充能能力的武器，充能射击会增加充能速度以及任何充能消耗。
-充能时推力减少30%。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1400,6 +1371,30 @@
   </si>
   <si>
     <t>1045，1046，1048，1033，1035，1029，1030，1032，1041，10434</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的子弹射程越远，造成的总伤害就越高，最多 +120%
++20% 射击速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每射击 10 次，额外射出 1 枚子弹在自己身后。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每射击 15 次，额外射出 10 枚子弹。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住开火键来充能武器，松开开火键释放攻击。
+充能可以提高武器的总伤害、子弹速度、子弹大小和爆炸半径。
+射速修正会影响充能速度。
+充能时推力减少30%。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1923,10 +1918,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1965,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -2072,10 +2067,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2140,7 +2135,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E6" s="11">
         <v>-0.15</v>
@@ -2177,7 +2172,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -2205,9 +2200,9 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -2216,13 +2211,13 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>26</v>
+        <v>298</v>
+      </c>
+      <c r="E8" s="11">
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="4">
         <v>1001</v>
@@ -2253,7 +2248,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" s="20">
         <v>0.1</v>
@@ -2290,7 +2285,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>55</v>
@@ -2327,10 +2322,10 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>41</v>
@@ -2357,7 +2352,7 @@
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="16">
         <v>1008</v>
@@ -2366,13 +2361,13 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="17">
         <v>1002</v>
@@ -2403,13 +2398,13 @@
         <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4">
         <v>1003</v>
@@ -2468,9 +2463,9 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
@@ -2479,10 +2474,10 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>50</v>
@@ -2516,13 +2511,13 @@
         <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="17">
         <v>1003</v>
@@ -2550,16 +2545,16 @@
         <v>1013</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="G17" s="4">
         <v>1004</v>
@@ -2587,16 +2582,16 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="4">
         <v>1004</v>
@@ -2624,16 +2619,16 @@
         <v>1015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E19" s="4">
         <v>0.15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="4">
         <v>1004</v>
@@ -2655,24 +2650,24 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3">
         <v>1016</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="G20" s="4">
         <v>1004</v>
@@ -2700,16 +2695,16 @@
         <v>1017</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="4">
         <v>0.1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="4">
         <v>1005</v>
@@ -2737,16 +2732,16 @@
         <v>1018</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="4">
         <v>0.2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="4">
         <v>1005</v>
@@ -2774,16 +2769,16 @@
         <v>1019</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="F23" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="G23" s="4">
         <v>1005</v>
@@ -2811,16 +2806,16 @@
         <v>1020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="4">
         <v>0.03</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="4">
         <v>1005</v>
@@ -2848,16 +2843,16 @@
         <v>1021</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="G25" s="4">
         <v>1006</v>
@@ -2885,16 +2880,16 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G26" s="4">
         <v>1006</v>
@@ -2918,20 +2913,20 @@
     </row>
     <row r="27" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3">
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" s="4">
         <v>1006</v>
@@ -2959,16 +2954,16 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G28" s="4">
         <v>1006</v>
@@ -2996,16 +2991,16 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="4">
         <v>0.2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G29" s="4">
         <v>1007</v>
@@ -3033,16 +3028,16 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="4">
         <v>1007</v>
@@ -3070,16 +3065,16 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="4">
         <v>1007</v>
@@ -3103,22 +3098,22 @@
     </row>
     <row r="32" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="3">
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G32" s="4">
         <v>1007</v>
@@ -3142,22 +3137,22 @@
     </row>
     <row r="33" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="3">
         <v>1029</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33" s="4">
         <v>0.4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G33" s="4">
         <v>1008</v>
@@ -3181,20 +3176,20 @@
     </row>
     <row r="34" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="3">
         <v>1030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G34" s="4">
         <v>1008</v>
@@ -3218,20 +3213,20 @@
     </row>
     <row r="35" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="3">
         <v>1031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" s="4">
         <v>1008</v>
@@ -3259,16 +3254,16 @@
         <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E36" s="4">
         <v>0.5</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="4">
         <v>1008</v>
@@ -3296,16 +3291,16 @@
         <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="4">
         <v>0.25</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37" s="4">
         <v>1009</v>
@@ -3329,22 +3324,22 @@
     </row>
     <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" s="3">
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E38" s="4">
         <v>120</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="4">
         <v>1009</v>
@@ -3368,22 +3363,22 @@
     </row>
     <row r="39" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" s="3">
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G39" s="4">
         <v>1009</v>
@@ -3411,16 +3406,16 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="4">
         <v>1009</v>
@@ -3448,16 +3443,16 @@
         <v>1037</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41" s="4">
         <v>0.2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G41" s="4">
         <v>1010</v>
@@ -3485,16 +3480,16 @@
         <v>1038</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="E42" s="4">
         <v>0.05</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G42" s="4">
         <v>1010</v>
@@ -3522,16 +3517,16 @@
         <v>1039</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G43" s="4">
         <v>1010</v>
@@ -3559,16 +3554,16 @@
         <v>1040</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="G44" s="4">
         <v>1010</v>
@@ -3596,16 +3591,16 @@
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E45" s="4">
         <v>0.2</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" s="4">
         <v>1011</v>
@@ -3629,22 +3624,22 @@
     </row>
     <row r="46" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="3">
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G46" s="4">
         <v>1011</v>
@@ -3672,16 +3667,16 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="G47" s="4">
         <v>1011</v>
@@ -3709,16 +3704,16 @@
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="G48" s="4">
         <v>1011</v>
@@ -3746,16 +3741,16 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G49" s="4">
         <v>1012</v>
@@ -3783,16 +3778,16 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="G50" s="4">
         <v>1012</v>
@@ -3820,16 +3815,16 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G51" s="4">
         <v>1012</v>
@@ -3853,22 +3848,22 @@
     </row>
     <row r="52" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" s="3">
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E52" s="4">
         <v>0.2</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G52" s="4">
         <v>1012</v>
@@ -3892,22 +3887,22 @@
     </row>
     <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B53" s="3">
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E53" s="4">
         <v>0.2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G53" s="4">
         <v>1013</v>
@@ -3931,22 +3926,22 @@
     </row>
     <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="3">
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G54" s="4">
         <v>1013</v>
@@ -3970,22 +3965,22 @@
     </row>
     <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="3">
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G55" s="4">
         <v>1013</v>
@@ -4009,22 +4004,22 @@
     </row>
     <row r="56" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" s="3">
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G56" s="4">
         <v>1013</v>
@@ -4048,22 +4043,22 @@
     </row>
     <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="3">
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G57" s="4">
         <v>1014</v>
@@ -4087,22 +4082,22 @@
     </row>
     <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="3">
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E58" s="4">
         <v>0.2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G58" s="4">
         <v>1014</v>
@@ -4126,22 +4121,22 @@
     </row>
     <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="3">
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E59" s="4">
         <v>-0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G59" s="4">
         <v>1014</v>
@@ -4165,22 +4160,22 @@
     </row>
     <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" s="3">
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E60" s="4">
         <v>0.1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G60" s="4">
         <v>1014</v>
@@ -5259,7 +5254,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -5361,10 +5356,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5387,7 +5382,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5414,7 +5409,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5441,10 +5436,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -5470,10 +5465,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="4"/>
@@ -5499,7 +5494,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5526,7 +5521,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5553,7 +5548,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
@@ -5580,7 +5575,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
@@ -5607,7 +5602,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5634,7 +5629,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
@@ -5661,7 +5656,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
@@ -5688,7 +5683,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5715,7 +5710,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7787,13 +7782,13 @@
         <v>8</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -7897,13 +7892,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -7928,7 +7923,7 @@
     </row>
     <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B5" s="22">
         <v>1001</v>
@@ -7975,7 +7970,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>44</v>
@@ -8013,7 +8008,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>54</v>
@@ -8048,13 +8043,13 @@
         <v>1004</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>89</v>
       </c>
       <c r="F8" s="24">
         <v>1016</v>
@@ -8086,13 +8081,13 @@
         <v>1005</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="F9" s="24">
         <v>1020</v>
@@ -8124,13 +8119,13 @@
         <v>1006</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>114</v>
       </c>
       <c r="F10" s="27">
         <v>1024</v>
@@ -8162,13 +8157,13 @@
         <v>1007</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>125</v>
       </c>
       <c r="F11" s="27">
         <v>1028</v>
@@ -8200,13 +8195,13 @@
         <v>1008</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="F12" s="27">
         <v>1032</v>
@@ -8238,13 +8233,13 @@
         <v>1009</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="F13" s="27">
         <v>1036</v>
@@ -8276,13 +8271,13 @@
         <v>1010</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>160</v>
-      </c>
       <c r="E14" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" s="27">
         <v>1040</v>
@@ -8314,13 +8309,13 @@
         <v>1011</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>173</v>
-      </c>
       <c r="E15" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="27">
         <v>1044</v>
@@ -8352,13 +8347,13 @@
         <v>1012</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>192</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>193</v>
       </c>
       <c r="F16" s="27">
         <v>1048</v>
@@ -8386,19 +8381,19 @@
     </row>
     <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B17" s="28">
         <v>1013</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F17" s="30">
         <v>1052</v>
@@ -8430,13 +8425,13 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F18" s="4">
         <v>1056</v>
@@ -11007,7 +11002,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
@@ -11020,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -11047,7 +11042,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
@@ -11058,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11085,10 +11080,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -11100,7 +11095,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13707,7 +13702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9191AB-DC1F-4988-8ECA-D1E940FEC546}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -13748,16 +13743,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -13866,16 +13861,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -13902,11 +13897,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F5" s="4">
         <v>1000</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CBCB57-FE64-4959-B126-7391259BDBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E4E2D0-15EE-41B1-B9D9-287457BAB144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="305">
   <si>
     <t>##var</t>
   </si>
@@ -1116,29 +1116,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[没做] 发射武器会从侧面发射一对较小的子弹。每发射 5 个子弹，就会额外发射一对
-追踪子弹大大提高瞄准能力并且不会很快退化
-追踪子弹的总伤害为 -70%，总爆炸半径和速度为 -60%
-+10% 武器扩散</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[没做] 增加被动护盾再生能力
-护盾以与最大护盾成比例的速率再生
-+10% 再生速度
-在有护盾的情况下，护盾以 75% 的效果再生
-在有护盾的情况下，血量以 50% 的效果再生
-在无护盾的情况下，血量以 100% 的效果再生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[没做] +40 基础血量
-+1 镀层
-失去护盾
-将升级池中除狂野护盾升级外的所有护盾升级取消，并返还相应数量的升级点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每次连续射击时，武器都会增加 1% 的总射速，最多100%。
 射击时 -80% 击退。
 当你连续开火时，会造成最大伤害 1% 的自我伤害。</t>
@@ -1395,6 +1372,39 @@
 充能可以提高武器的总伤害、子弹速度、子弹大小和爆炸半径。
 射速修正会影响充能速度。
 充能时推力减少30%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0.3,0.4,0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射武器会从侧面发射一对较小的子弹。每发射 5 个子弹，就会额外发射 1 对
+发射的子弹大大提高瞄准能力并且不会很快退化
+发射的子弹的伤害为 30%，速度为 40%
++10% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.75,0.5,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加被动护盾再生能力
+护盾每 1s 回复一次
++10% 再生速度
+有护盾时，护盾以 75% 的效果再生
+有护盾时，血量以 50% 的效果再生
+无护盾时，血量以 100% 的效果再生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20 最大血量
++50% 再生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1919,9 +1929,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2182,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -2211,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E8" s="11">
         <v>10</v>
@@ -2322,7 +2332,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>59</v>
@@ -2361,7 +2371,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>62</v>
@@ -2474,10 +2484,10 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>50</v>
@@ -2661,7 +2671,7 @@
         <v>85</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E20" s="4">
         <v>-0.3</v>
@@ -2913,7 +2923,7 @@
     </row>
     <row r="27" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="B27" s="3">
         <v>1023</v>
@@ -2922,9 +2932,11 @@
         <v>107</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="F27" s="4" t="s">
         <v>108</v>
       </c>
@@ -3176,7 +3188,7 @@
     </row>
     <row r="34" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="B34" s="3">
         <v>1030</v>
@@ -3185,9 +3197,11 @@
         <v>131</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>302</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="F34" s="4" t="s">
         <v>130</v>
       </c>
@@ -3211,9 +3225,9 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="B35" s="3">
         <v>1031</v>
@@ -3222,9 +3236,11 @@
         <v>133</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="F35" s="4" t="s">
         <v>132</v>
       </c>
@@ -3747,7 +3763,7 @@
         <v>182</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>180</v>
@@ -3893,16 +3909,16 @@
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E53" s="4">
         <v>0.2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G53" s="4">
         <v>1013</v>
@@ -3932,16 +3948,16 @@
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G54" s="4">
         <v>1013</v>
@@ -3971,16 +3987,16 @@
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G55" s="4">
         <v>1013</v>
@@ -4010,16 +4026,16 @@
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G56" s="4">
         <v>1013</v>
@@ -4049,16 +4065,16 @@
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G57" s="4">
         <v>1014</v>
@@ -4088,16 +4104,16 @@
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E58" s="4">
         <v>0.2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G58" s="4">
         <v>1014</v>
@@ -4127,16 +4143,16 @@
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E59" s="4">
         <v>-0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G59" s="4">
         <v>1014</v>
@@ -4166,16 +4182,16 @@
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E60" s="4">
         <v>0.1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G60" s="4">
         <v>1014</v>
@@ -5382,7 +5398,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5409,7 +5425,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5436,10 +5452,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -5465,10 +5481,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="4"/>
@@ -5494,7 +5510,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5521,7 +5537,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5548,7 +5564,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
@@ -5575,7 +5591,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
@@ -5602,7 +5618,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5629,7 +5645,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
@@ -5656,7 +5672,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
@@ -5683,7 +5699,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5710,7 +5726,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7923,7 +7939,7 @@
     </row>
     <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" s="22">
         <v>1001</v>
@@ -8381,19 +8397,19 @@
     </row>
     <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B17" s="28">
         <v>1013</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F17" s="30">
         <v>1052</v>
@@ -8425,13 +8441,13 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F18" s="4">
         <v>1056</v>
@@ -11042,7 +11058,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
@@ -11053,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11080,10 +11096,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -11095,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13897,11 +13913,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F5" s="4">
         <v>1000</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E4E2D0-15EE-41B1-B9D9-287457BAB144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE0C09-34B9-4D79-AA93-7249CA395CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="305">
   <si>
     <t>##var</t>
   </si>
@@ -1929,9 +1929,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2661,9 +2661,7 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>1016</v>
       </c>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE0C09-34B9-4D79-AA93-7249CA395CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C73430-9063-4FE6-88E2-26065743BCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="304">
   <si>
     <t>##var</t>
   </si>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>todo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.075,0.3,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -377,14 +373,6 @@
   </si>
   <si>
     <t>SiegeWeaponry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.01,0.8,0.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fix</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1405,6 +1393,14 @@
   <si>
     <t>+20 最大血量
 +50% 再生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.01,-0.8,0.01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1929,9 +1925,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1971,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -2077,10 +2073,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2145,7 +2141,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E6" s="11">
         <v>-0.15</v>
@@ -2182,7 +2178,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -2212,7 +2208,7 @@
     </row>
     <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -2221,7 +2217,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E8" s="11">
         <v>10</v>
@@ -2258,7 +2254,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E9" s="20">
         <v>0.1</v>
@@ -2295,7 +2291,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>55</v>
@@ -2324,7 +2320,9 @@
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="B11" s="3">
         <v>1007</v>
       </c>
@@ -2332,10 +2330,10 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>41</v>
@@ -2361,9 +2359,7 @@
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" s="18" customFormat="1" ht="54.45" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="16">
         <v>1008</v>
       </c>
@@ -2371,13 +2367,13 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="17">
         <v>1002</v>
@@ -2408,13 +2404,13 @@
         <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13" s="4">
         <v>1003</v>
@@ -2475,7 +2471,7 @@
     </row>
     <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
@@ -2484,10 +2480,10 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>50</v>
@@ -2521,13 +2517,13 @@
         <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="17">
         <v>1003</v>
@@ -2555,16 +2551,16 @@
         <v>1013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4">
         <v>1004</v>
@@ -2592,16 +2588,16 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G18" s="4">
         <v>1004</v>
@@ -2629,16 +2625,16 @@
         <v>1015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19" s="4">
         <v>0.15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G19" s="4">
         <v>1004</v>
@@ -2666,16 +2662,16 @@
         <v>1016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E20" s="4">
         <v>-0.3</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4">
         <v>1004</v>
@@ -2703,16 +2699,16 @@
         <v>1017</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E21" s="4">
         <v>0.1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G21" s="4">
         <v>1005</v>
@@ -2740,16 +2736,16 @@
         <v>1018</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4">
         <v>0.2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G22" s="4">
         <v>1005</v>
@@ -2777,16 +2773,16 @@
         <v>1019</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G23" s="4">
         <v>1005</v>
@@ -2814,16 +2810,16 @@
         <v>1020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" s="4">
         <v>0.03</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G24" s="4">
         <v>1005</v>
@@ -2851,16 +2847,16 @@
         <v>1021</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G25" s="4">
         <v>1006</v>
@@ -2888,16 +2884,16 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G26" s="4">
         <v>1006</v>
@@ -2921,22 +2917,22 @@
     </row>
     <row r="27" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B27" s="3">
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G27" s="4">
         <v>1006</v>
@@ -2964,16 +2960,16 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G28" s="4">
         <v>1006</v>
@@ -3001,16 +2997,16 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E29" s="4">
         <v>0.2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G29" s="4">
         <v>1007</v>
@@ -3038,16 +3034,16 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G30" s="4">
         <v>1007</v>
@@ -3075,16 +3071,16 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G31" s="4">
         <v>1007</v>
@@ -3108,22 +3104,22 @@
     </row>
     <row r="32" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B32" s="3">
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G32" s="4">
         <v>1007</v>
@@ -3147,22 +3143,22 @@
     </row>
     <row r="33" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B33" s="3">
         <v>1029</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E33" s="4">
         <v>0.4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G33" s="4">
         <v>1008</v>
@@ -3186,22 +3182,22 @@
     </row>
     <row r="34" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B34" s="3">
         <v>1030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G34" s="4">
         <v>1008</v>
@@ -3225,22 +3221,22 @@
     </row>
     <row r="35" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B35" s="3">
         <v>1031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G35" s="4">
         <v>1008</v>
@@ -3268,16 +3264,16 @@
         <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E36" s="4">
         <v>0.5</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G36" s="4">
         <v>1008</v>
@@ -3305,16 +3301,16 @@
         <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E37" s="4">
         <v>0.25</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G37" s="4">
         <v>1009</v>
@@ -3338,22 +3334,22 @@
     </row>
     <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B38" s="3">
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E38" s="4">
         <v>120</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G38" s="4">
         <v>1009</v>
@@ -3377,22 +3373,22 @@
     </row>
     <row r="39" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B39" s="3">
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G39" s="4">
         <v>1009</v>
@@ -3420,16 +3416,16 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G40" s="4">
         <v>1009</v>
@@ -3457,16 +3453,16 @@
         <v>1037</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="E41" s="4">
         <v>0.2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G41" s="4">
         <v>1010</v>
@@ -3494,16 +3490,16 @@
         <v>1038</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E42" s="4">
         <v>0.05</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G42" s="4">
         <v>1010</v>
@@ -3531,16 +3527,16 @@
         <v>1039</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G43" s="4">
         <v>1010</v>
@@ -3568,16 +3564,16 @@
         <v>1040</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G44" s="4">
         <v>1010</v>
@@ -3605,16 +3601,16 @@
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E45" s="4">
         <v>0.2</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G45" s="4">
         <v>1011</v>
@@ -3638,22 +3634,22 @@
     </row>
     <row r="46" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B46" s="3">
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G46" s="4">
         <v>1011</v>
@@ -3681,16 +3677,16 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G47" s="4">
         <v>1011</v>
@@ -3718,16 +3714,16 @@
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G48" s="4">
         <v>1011</v>
@@ -3755,16 +3751,16 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G49" s="4">
         <v>1012</v>
@@ -3792,16 +3788,16 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G50" s="4">
         <v>1012</v>
@@ -3829,16 +3825,16 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G51" s="4">
         <v>1012</v>
@@ -3862,22 +3858,22 @@
     </row>
     <row r="52" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B52" s="3">
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E52" s="4">
         <v>0.2</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G52" s="4">
         <v>1012</v>
@@ -3901,22 +3897,22 @@
     </row>
     <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B53" s="3">
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E53" s="4">
         <v>0.2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G53" s="4">
         <v>1013</v>
@@ -3940,22 +3936,22 @@
     </row>
     <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B54" s="3">
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G54" s="4">
         <v>1013</v>
@@ -3979,22 +3975,22 @@
     </row>
     <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="B55" s="3">
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G55" s="4">
         <v>1013</v>
@@ -4018,22 +4014,22 @@
     </row>
     <row r="56" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B56" s="3">
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G56" s="4">
         <v>1013</v>
@@ -4057,22 +4053,22 @@
     </row>
     <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B57" s="3">
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G57" s="4">
         <v>1014</v>
@@ -4096,22 +4092,22 @@
     </row>
     <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B58" s="3">
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E58" s="4">
         <v>0.2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G58" s="4">
         <v>1014</v>
@@ -4135,22 +4131,22 @@
     </row>
     <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B59" s="3">
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E59" s="4">
         <v>-0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G59" s="4">
         <v>1014</v>
@@ -4174,22 +4170,22 @@
     </row>
     <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B60" s="3">
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E60" s="4">
         <v>0.1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G60" s="4">
         <v>1014</v>
@@ -5268,7 +5264,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -5370,10 +5366,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5396,7 +5392,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5423,7 +5419,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5450,10 +5446,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -5479,10 +5475,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="4"/>
@@ -5508,7 +5504,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5535,7 +5531,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5562,7 +5558,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
@@ -5589,7 +5585,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
@@ -5616,7 +5612,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5643,7 +5639,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
@@ -5670,7 +5666,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
@@ -5697,7 +5693,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5724,7 +5720,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7796,13 +7792,13 @@
         <v>8</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -7906,13 +7902,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -7937,7 +7933,7 @@
     </row>
     <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B5" s="22">
         <v>1001</v>
@@ -7984,7 +7980,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>44</v>
@@ -8022,7 +8018,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>54</v>
@@ -8057,13 +8053,13 @@
         <v>1004</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F8" s="24">
         <v>1016</v>
@@ -8095,13 +8091,13 @@
         <v>1005</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F9" s="24">
         <v>1020</v>
@@ -8133,13 +8129,13 @@
         <v>1006</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10" s="27">
         <v>1024</v>
@@ -8171,13 +8167,13 @@
         <v>1007</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F11" s="27">
         <v>1028</v>
@@ -8209,13 +8205,13 @@
         <v>1008</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F12" s="27">
         <v>1032</v>
@@ -8247,13 +8243,13 @@
         <v>1009</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="27">
         <v>1036</v>
@@ -8285,13 +8281,13 @@
         <v>1010</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F14" s="27">
         <v>1040</v>
@@ -8323,13 +8319,13 @@
         <v>1011</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F15" s="27">
         <v>1044</v>
@@ -8361,13 +8357,13 @@
         <v>1012</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F16" s="27">
         <v>1048</v>
@@ -8395,19 +8391,19 @@
     </row>
     <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B17" s="28">
         <v>1013</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F17" s="30">
         <v>1052</v>
@@ -8439,13 +8435,13 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F18" s="4">
         <v>1056</v>
@@ -11016,7 +11012,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
@@ -11029,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -11056,7 +11052,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
@@ -11067,7 +11063,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11094,10 +11090,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -11109,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13757,16 +13753,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -13875,16 +13871,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -13911,11 +13907,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F5" s="4">
         <v>1000</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C73430-9063-4FE6-88E2-26065743BCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA7B1B9-539C-48C6-8862-6C74BF60ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,10 +545,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>指导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>归航打击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1401,6 +1397,10 @@
   </si>
   <si>
     <t>-0.01,-0.8,0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1925,9 +1925,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2141,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="11">
         <v>-0.15</v>
@@ -2178,7 +2178,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -2217,7 +2217,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" s="11">
         <v>10</v>
@@ -2254,7 +2254,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="20">
         <v>0.1</v>
@@ -2291,7 +2291,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>55</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="11" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B11" s="3">
         <v>1007</v>
@@ -2330,7 +2330,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>58</v>
@@ -2367,10 +2367,10 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>60</v>
@@ -2404,7 +2404,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>56</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
@@ -2480,10 +2480,10 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>50</v>
@@ -2517,7 +2517,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>62</v>
@@ -2554,7 +2554,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>76</v>
@@ -2591,7 +2591,7 @@
         <v>78</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>81</v>
@@ -2628,7 +2628,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="4">
         <v>0.15</v>
@@ -2665,7 +2665,7 @@
         <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" s="4">
         <v>-0.3</v>
@@ -2813,7 +2813,7 @@
         <v>97</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="4">
         <v>0.03</v>
@@ -2850,10 +2850,10 @@
         <v>100</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>101</v>
@@ -2884,13 +2884,13 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>102</v>
@@ -2917,22 +2917,22 @@
     </row>
     <row r="27" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="3">
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="G27" s="4">
         <v>1006</v>
@@ -2960,16 +2960,16 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="G28" s="4">
         <v>1006</v>
@@ -2997,16 +2997,16 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="4">
         <v>0.2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G29" s="4">
         <v>1007</v>
@@ -3034,16 +3034,16 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G30" s="4">
         <v>1007</v>
@@ -3071,16 +3071,16 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G31" s="4">
         <v>1007</v>
@@ -3104,22 +3104,22 @@
     </row>
     <row r="32" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="3">
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G32" s="4">
         <v>1007</v>
@@ -3143,22 +3143,22 @@
     </row>
     <row r="33" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="3">
         <v>1029</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E33" s="4">
         <v>0.4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G33" s="4">
         <v>1008</v>
@@ -3182,22 +3182,22 @@
     </row>
     <row r="34" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="3">
         <v>1030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" s="4">
         <v>1008</v>
@@ -3221,22 +3221,22 @@
     </row>
     <row r="35" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="3">
         <v>1031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G35" s="4">
         <v>1008</v>
@@ -3264,16 +3264,16 @@
         <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="4">
         <v>0.5</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="4">
         <v>1008</v>
@@ -3301,16 +3301,16 @@
         <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" s="4">
         <v>0.25</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="4">
         <v>1009</v>
@@ -3334,22 +3334,22 @@
     </row>
     <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" s="3">
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38" s="4">
         <v>120</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G38" s="4">
         <v>1009</v>
@@ -3373,22 +3373,22 @@
     </row>
     <row r="39" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="3">
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" s="4">
         <v>1009</v>
@@ -3416,16 +3416,16 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G40" s="4">
         <v>1009</v>
@@ -3453,16 +3453,16 @@
         <v>1037</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="4">
         <v>0.2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G41" s="4">
         <v>1010</v>
@@ -3490,16 +3490,16 @@
         <v>1038</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="E42" s="4">
         <v>0.05</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G42" s="4">
         <v>1010</v>
@@ -3527,16 +3527,16 @@
         <v>1039</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G43" s="4">
         <v>1010</v>
@@ -3564,16 +3564,16 @@
         <v>1040</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="G44" s="4">
         <v>1010</v>
@@ -3601,16 +3601,16 @@
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E45" s="4">
         <v>0.2</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G45" s="4">
         <v>1011</v>
@@ -3634,22 +3634,22 @@
     </row>
     <row r="46" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="3">
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G46" s="4">
         <v>1011</v>
@@ -3677,16 +3677,16 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="G47" s="4">
         <v>1011</v>
@@ -3714,16 +3714,16 @@
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="G48" s="4">
         <v>1011</v>
@@ -3751,16 +3751,16 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G49" s="4">
         <v>1012</v>
@@ -3788,16 +3788,16 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="G50" s="4">
         <v>1012</v>
@@ -3825,16 +3825,16 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="G51" s="4">
         <v>1012</v>
@@ -3858,22 +3858,22 @@
     </row>
     <row r="52" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="3">
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" s="4">
         <v>0.2</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G52" s="4">
         <v>1012</v>
@@ -3897,22 +3897,22 @@
     </row>
     <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" s="3">
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="E53" s="4">
         <v>0.2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G53" s="4">
         <v>1013</v>
@@ -3936,22 +3936,22 @@
     </row>
     <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" s="3">
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="G54" s="4">
         <v>1013</v>
@@ -3975,22 +3975,22 @@
     </row>
     <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55" s="3">
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="G55" s="4">
         <v>1013</v>
@@ -4014,22 +4014,22 @@
     </row>
     <row r="56" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B56" s="3">
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G56" s="4">
         <v>1013</v>
@@ -4053,22 +4053,22 @@
     </row>
     <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="3">
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G57" s="4">
         <v>1014</v>
@@ -4092,22 +4092,22 @@
     </row>
     <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" s="3">
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E58" s="4">
         <v>0.2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G58" s="4">
         <v>1014</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B59" s="3">
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E59" s="4">
         <v>-0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G59" s="4">
         <v>1014</v>
@@ -4170,22 +4170,22 @@
     </row>
     <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" s="3">
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E60" s="4">
         <v>0.1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G60" s="4">
         <v>1014</v>
@@ -5392,7 +5392,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5419,7 +5419,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5446,10 +5446,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -5475,10 +5475,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="4"/>
@@ -5504,7 +5504,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5531,7 +5531,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5558,7 +5558,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
@@ -5585,7 +5585,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
@@ -5612,7 +5612,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5639,7 +5639,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
@@ -5666,7 +5666,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
@@ -5693,7 +5693,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5720,7 +5720,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="22">
         <v>1001</v>
@@ -8129,13 +8129,13 @@
         <v>1006</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="F10" s="27">
         <v>1024</v>
@@ -8167,13 +8167,13 @@
         <v>1007</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>121</v>
       </c>
       <c r="F11" s="27">
         <v>1028</v>
@@ -8205,13 +8205,13 @@
         <v>1008</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>134</v>
       </c>
       <c r="F12" s="27">
         <v>1032</v>
@@ -8243,13 +8243,13 @@
         <v>1009</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>140</v>
       </c>
       <c r="F13" s="27">
         <v>1036</v>
@@ -8281,13 +8281,13 @@
         <v>1010</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>156</v>
-      </c>
       <c r="E14" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14" s="27">
         <v>1040</v>
@@ -8319,13 +8319,13 @@
         <v>1011</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>169</v>
-      </c>
       <c r="E15" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="27">
         <v>1044</v>
@@ -8357,13 +8357,13 @@
         <v>1012</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="F16" s="27">
         <v>1048</v>
@@ -8391,19 +8391,19 @@
     </row>
     <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="28">
         <v>1013</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>240</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>241</v>
       </c>
       <c r="F17" s="30">
         <v>1052</v>
@@ -8435,13 +8435,13 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="F18" s="4">
         <v>1056</v>
@@ -11012,7 +11012,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -11052,7 +11052,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
@@ -11063,7 +11063,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11090,10 +11090,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -11105,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13753,16 +13753,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -13871,16 +13871,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -13907,11 +13907,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F5" s="4">
         <v>1000</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA7B1B9-539C-48C6-8862-6C74BF60ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA8C31-C70A-4CCD-87D3-CFA0CDA0B3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,10 +533,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>瞄准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Targeting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -714,10 +710,6 @@
   </si>
   <si>
     <t>100,0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加 100 或 提升 10% 武器瞄准能力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -955,23 +947,12 @@
 增加 15% 的散布。</t>
   </si>
   <si>
-    <t>武器瞄准 +5%
-+2 子弹
--15% 子弹速度、射速和子弹尺寸
-+75% 武器扩散</t>
-  </si>
-  <si>
     <t>+ 15% 射速</t>
   </si>
   <si>
     <t>武器快速射击，但产生的冷却时间等于射击的累积冷却时间
 +2 连射
 +20% 射速</t>
-  </si>
-  <si>
-    <t>武器瞄准能力 +40%
--20% 子弹总速度
--5% 射速</t>
   </si>
   <si>
     <t>+20% 子弹大小
@@ -1360,13 +1341,6 @@
   </si>
   <si>
     <t>5,1,0.3,0.4,0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射武器会从侧面发射一对较小的子弹。每发射 5 个子弹，就会额外发射 1 对
-发射的子弹大大提高瞄准能力并且不会很快退化
-发射的子弹的伤害为 30%，速度为 40%
-+10% 武器扩散</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1401,6 +1375,31 @@
   </si>
   <si>
     <t>领导</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器追踪能力 +40%
+-20% 子弹总速度
+-5% 射速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪</t>
+  </si>
+  <si>
+    <t>添加 100 或 提升 10% 武器追踪能力</t>
+  </si>
+  <si>
+    <t>武器追踪 +5%
++2 子弹
+-15% 子弹速度、射速和子弹尺寸
++75% 武器扩散</t>
+  </si>
+  <si>
+    <t>每发射 5 个子弹，就会额外发射 1 对较小的子弹
+额外发射的子弹大大提高追踪能力并且不会很快退化
+额外发射的子弹的伤害为 30%，速度为 40%
++10% 武器扩散</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1925,9 +1924,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E6" s="11">
         <v>-0.15</v>
@@ -2178,7 +2177,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -2208,7 +2207,7 @@
     </row>
     <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -2217,7 +2216,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E8" s="11">
         <v>10</v>
@@ -2254,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E9" s="20">
         <v>0.1</v>
@@ -2291,7 +2290,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>55</v>
@@ -2321,7 +2320,7 @@
     </row>
     <row r="11" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B11" s="3">
         <v>1007</v>
@@ -2330,7 +2329,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>58</v>
@@ -2367,10 +2366,10 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>60</v>
@@ -2404,7 +2403,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>56</v>
@@ -2471,7 +2470,7 @@
     </row>
     <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="3">
         <v>1011</v>
@@ -2480,10 +2479,10 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>50</v>
@@ -2517,7 +2516,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>62</v>
@@ -2554,7 +2553,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>76</v>
@@ -2591,7 +2590,7 @@
         <v>78</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>81</v>
@@ -2628,7 +2627,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E19" s="4">
         <v>0.15</v>
@@ -2665,7 +2664,7 @@
         <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E20" s="4">
         <v>-0.3</v>
@@ -2813,7 +2812,7 @@
         <v>97</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="4">
         <v>0.03</v>
@@ -2847,16 +2846,16 @@
         <v>1021</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G25" s="4">
         <v>1006</v>
@@ -2884,16 +2883,16 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26" s="4">
         <v>1006</v>
@@ -2917,22 +2916,22 @@
     </row>
     <row r="27" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="3">
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="G27" s="4">
         <v>1006</v>
@@ -2960,16 +2959,16 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="G28" s="4">
         <v>1006</v>
@@ -2997,16 +2996,16 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4">
         <v>0.2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G29" s="4">
         <v>1007</v>
@@ -3034,16 +3033,16 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30" s="4">
         <v>1007</v>
@@ -3071,16 +3070,16 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G31" s="4">
         <v>1007</v>
@@ -3104,22 +3103,22 @@
     </row>
     <row r="32" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B32" s="3">
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G32" s="4">
         <v>1007</v>
@@ -3143,22 +3142,22 @@
     </row>
     <row r="33" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B33" s="3">
         <v>1029</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E33" s="4">
         <v>0.4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G33" s="4">
         <v>1008</v>
@@ -3182,22 +3181,22 @@
     </row>
     <row r="34" spans="1:23" ht="108.95" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" s="3">
         <v>1030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G34" s="4">
         <v>1008</v>
@@ -3221,22 +3220,22 @@
     </row>
     <row r="35" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35" s="3">
         <v>1031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="4">
         <v>1008</v>
@@ -3264,16 +3263,16 @@
         <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E36" s="4">
         <v>0.5</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G36" s="4">
         <v>1008</v>
@@ -3301,16 +3300,16 @@
         <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="4">
         <v>0.25</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="4">
         <v>1009</v>
@@ -3334,22 +3333,22 @@
     </row>
     <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B38" s="3">
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E38" s="4">
         <v>120</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38" s="4">
         <v>1009</v>
@@ -3373,22 +3372,22 @@
     </row>
     <row r="39" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B39" s="3">
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G39" s="4">
         <v>1009</v>
@@ -3416,16 +3415,16 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G40" s="4">
         <v>1009</v>
@@ -3453,16 +3452,16 @@
         <v>1037</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E41" s="4">
         <v>0.2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G41" s="4">
         <v>1010</v>
@@ -3490,16 +3489,16 @@
         <v>1038</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E42" s="4">
         <v>0.05</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G42" s="4">
         <v>1010</v>
@@ -3527,16 +3526,16 @@
         <v>1039</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G43" s="4">
         <v>1010</v>
@@ -3564,16 +3563,16 @@
         <v>1040</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G44" s="4">
         <v>1010</v>
@@ -3601,16 +3600,16 @@
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E45" s="4">
         <v>0.2</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G45" s="4">
         <v>1011</v>
@@ -3634,22 +3633,22 @@
     </row>
     <row r="46" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B46" s="3">
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G46" s="4">
         <v>1011</v>
@@ -3677,16 +3676,16 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G47" s="4">
         <v>1011</v>
@@ -3714,16 +3713,16 @@
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G48" s="4">
         <v>1011</v>
@@ -3751,16 +3750,16 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G49" s="4">
         <v>1012</v>
@@ -3788,16 +3787,16 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G50" s="4">
         <v>1012</v>
@@ -3825,16 +3824,16 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="G51" s="4">
         <v>1012</v>
@@ -3858,22 +3857,22 @@
     </row>
     <row r="52" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B52" s="3">
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E52" s="4">
         <v>0.2</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G52" s="4">
         <v>1012</v>
@@ -3897,22 +3896,22 @@
     </row>
     <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B53" s="3">
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E53" s="4">
         <v>0.2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G53" s="4">
         <v>1013</v>
@@ -3936,22 +3935,22 @@
     </row>
     <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B54" s="3">
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G54" s="4">
         <v>1013</v>
@@ -3975,22 +3974,22 @@
     </row>
     <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B55" s="3">
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="F55" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G55" s="4">
         <v>1013</v>
@@ -4014,22 +4013,22 @@
     </row>
     <row r="56" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B56" s="3">
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G56" s="4">
         <v>1013</v>
@@ -4053,22 +4052,22 @@
     </row>
     <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B57" s="3">
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G57" s="4">
         <v>1014</v>
@@ -4092,22 +4091,22 @@
     </row>
     <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B58" s="3">
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E58" s="4">
         <v>0.2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G58" s="4">
         <v>1014</v>
@@ -4131,22 +4130,22 @@
     </row>
     <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B59" s="3">
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E59" s="4">
         <v>-0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G59" s="4">
         <v>1014</v>
@@ -4170,22 +4169,22 @@
     </row>
     <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B60" s="3">
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E60" s="4">
         <v>0.1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G60" s="4">
         <v>1014</v>
@@ -5392,7 +5391,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5419,7 +5418,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5446,10 +5445,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -5475,10 +5474,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="4"/>
@@ -5504,7 +5503,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5531,7 +5530,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5558,7 +5557,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
@@ -5585,7 +5584,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
@@ -5612,7 +5611,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5639,7 +5638,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
@@ -5666,7 +5665,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
@@ -5693,7 +5692,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5720,7 +5719,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7933,7 +7932,7 @@
     </row>
     <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B5" s="22">
         <v>1001</v>
@@ -8129,13 +8128,13 @@
         <v>1006</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>109</v>
       </c>
       <c r="F10" s="27">
         <v>1024</v>
@@ -8167,13 +8166,13 @@
         <v>1007</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>120</v>
       </c>
       <c r="F11" s="27">
         <v>1028</v>
@@ -8205,13 +8204,13 @@
         <v>1008</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>132</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>133</v>
       </c>
       <c r="F12" s="27">
         <v>1032</v>
@@ -8243,13 +8242,13 @@
         <v>1009</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>139</v>
       </c>
       <c r="F13" s="27">
         <v>1036</v>
@@ -8281,13 +8280,13 @@
         <v>1010</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14" s="27">
         <v>1040</v>
@@ -8319,13 +8318,13 @@
         <v>1011</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F15" s="27">
         <v>1044</v>
@@ -8357,13 +8356,13 @@
         <v>1012</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F16" s="27">
         <v>1048</v>
@@ -8391,19 +8390,19 @@
     </row>
     <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B17" s="28">
         <v>1013</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F17" s="30">
         <v>1052</v>
@@ -8435,13 +8434,13 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F18" s="4">
         <v>1056</v>
@@ -11012,7 +11011,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
@@ -11025,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -11052,7 +11051,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
@@ -11063,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11090,10 +11089,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -11105,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13753,16 +13752,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -13871,16 +13870,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -13907,11 +13906,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F5" s="4">
         <v>1000</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA8C31-C70A-4CCD-87D3-CFA0CDA0B3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F8538-3C74-482D-898D-566BD6B9BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,19 +1062,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>+55 最大护盾
-+15% 护盾伤害抗性
-+15% 护盾效果强度
-当你的护盾正在冷却时，它对因受到伤害而导致的冷却延迟有更强的抵抗力（没做）
--85% 最大生命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你受到的伤害越大，目标承受的全局伤害就越大，最多 + 50%
-该加成平均了你的血量和护盾受损的比例。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>+3 镀层
 镀层能够减少固定数值的船体损坏，提供防御迅速轻型伤害的保护。
 镀层无法将伤害降低到1以下。</t>
@@ -1400,6 +1387,18 @@
 额外发射的子弹大大提高追踪能力并且不会很快退化
 额外发射的子弹的伤害为 30%，速度为 40%
 +10% 武器扩散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你受到的伤害越大，敌人承受的全局伤害就越大，最多 + 50%
+该加成平均了你的血量和护盾受损的比例。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+55 最大护盾
++15% 护盾伤害抗性
++15% 护盾效果强度
+-85% 最大生命</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1924,9 +1923,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2176,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -2216,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E8" s="11">
         <v>10</v>
@@ -2320,7 +2319,7 @@
     </row>
     <row r="11" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B11" s="3">
         <v>1007</v>
@@ -2329,7 +2328,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>58</v>
@@ -2366,10 +2365,10 @@
         <v>43</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>60</v>
@@ -2479,10 +2478,10 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>50</v>
@@ -2664,7 +2663,7 @@
         <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E20" s="4">
         <v>-0.3</v>
@@ -2846,10 +2845,10 @@
         <v>1021</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>143</v>
@@ -2883,10 +2882,10 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>144</v>
@@ -2925,10 +2924,10 @@
         <v>102</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>103</v>
@@ -2962,7 +2961,7 @@
         <v>104</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>145</v>
@@ -3036,7 +3035,7 @@
         <v>113</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -3190,10 +3189,10 @@
         <v>126</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>125</v>
@@ -3229,10 +3228,10 @@
         <v>128</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>127</v>
@@ -3266,7 +3265,7 @@
         <v>130</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="E36" s="4">
         <v>0.5</v>
@@ -3557,7 +3556,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" ht="90.8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" ht="72.599999999999994" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>1040</v>
@@ -3566,7 +3565,7 @@
         <v>162</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>188</v>
@@ -3756,7 +3755,7 @@
         <v>176</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>174</v>
@@ -3902,16 +3901,16 @@
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E53" s="4">
         <v>0.2</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G53" s="4">
         <v>1013</v>
@@ -3941,16 +3940,16 @@
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G54" s="4">
         <v>1013</v>
@@ -3980,16 +3979,16 @@
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G55" s="4">
         <v>1013</v>
@@ -4019,16 +4018,16 @@
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G56" s="4">
         <v>1013</v>
@@ -4058,16 +4057,16 @@
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="E57" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G57" s="4">
         <v>1014</v>
@@ -4097,16 +4096,16 @@
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E58" s="4">
         <v>0.2</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G58" s="4">
         <v>1014</v>
@@ -4136,16 +4135,16 @@
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E59" s="4">
         <v>-0.1</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G59" s="4">
         <v>1014</v>
@@ -4175,16 +4174,16 @@
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E60" s="4">
         <v>0.1</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G60" s="4">
         <v>1014</v>
@@ -5391,7 +5390,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -5418,7 +5417,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -5445,10 +5444,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="4"/>
@@ -5474,10 +5473,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="4"/>
@@ -5503,7 +5502,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5530,7 +5529,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5557,7 +5556,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="4"/>
@@ -5584,7 +5583,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="4"/>
@@ -5611,7 +5610,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5638,7 +5637,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="4"/>
@@ -5665,7 +5664,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="4"/>
@@ -5692,7 +5691,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5719,7 +5718,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7932,7 +7931,7 @@
     </row>
     <row r="5" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="22">
         <v>1001</v>
@@ -8390,19 +8389,19 @@
     </row>
     <row r="17" spans="1:26" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" s="28">
         <v>1013</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F17" s="30">
         <v>1052</v>
@@ -8434,13 +8433,13 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F18" s="4">
         <v>1056</v>
@@ -11051,7 +11050,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
@@ -11062,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11089,10 +11088,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
@@ -11104,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -13906,11 +13905,11 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F5" s="4">
         <v>1000</v>

--- a/Tools/Luban/Datas/Abilities.xlsx
+++ b/Tools/Luban/Datas/Abilities.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F8538-3C74-482D-898D-566BD6B9BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DD6573-165C-4BF4-B144-A4DE211CD44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1923,9 +1923,9 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
